--- a/src/attributions/attributions_saliency_traj_206.xlsx
+++ b/src/attributions/attributions_saliency_traj_206.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5319691896438599</v>
+        <v>0.003176763653755188</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07445859909057617</v>
+        <v>1.090634942054749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.436661958694458</v>
+        <v>0.08916226029396057</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1241222396492958</v>
+        <v>0.1711438596248627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1631394028663635</v>
+        <v>0.3314861953258514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08080498874187469</v>
+        <v>0.8662043809890747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06346355378627777</v>
+        <v>0.04185806959867477</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09531345963478088</v>
+        <v>0.2151976227760315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05250881239771843</v>
+        <v>0.07907550781965256</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4791792333126068</v>
+        <v>0.2293035387992859</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03351534903049469</v>
+        <v>0.8554242849349976</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4434184432029724</v>
+        <v>0.1011684685945511</v>
       </c>
       <c r="M3" t="n">
-        <v>0.111106351017952</v>
+        <v>0.3708005547523499</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09926224499940872</v>
+        <v>0.2226188331842422</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02556383237242699</v>
+        <v>0.735045313835144</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1334139406681061</v>
+        <v>0.08027338236570358</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0730309784412384</v>
+        <v>0.03256834298372269</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09498241543769836</v>
+        <v>0.01469361782073975</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02651072852313519</v>
+        <v>0.09735672920942307</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1440203636884689</v>
+        <v>0.12343530356884</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02621779590845108</v>
+        <v>0.07083943486213684</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01704091578722</v>
+        <v>0.02563388086855412</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1311517953872681</v>
+        <v>0.05433753132820129</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05707277730107307</v>
+        <v>0.03667748719453812</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02714899368584156</v>
+        <v>0.01271747797727585</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.120741680264473</v>
+        <v>0.07301425188779831</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05012074112892151</v>
+        <v>0.0504072830080986</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02121522836387157</v>
+        <v>0.1288817971944809</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01031753420829773</v>
+        <v>0.1116460710763931</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.06988424062728882</v>
+        <v>0.007551536895334721</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03857100009918213</v>
+        <v>0.03828326985239983</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08766337484121323</v>
+        <v>0.2263237982988358</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05944693461060524</v>
+        <v>0.1339369118213654</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05656430125236511</v>
+        <v>0.04073311388492584</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07867507636547089</v>
+        <v>0.009972257539629936</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.07026788592338562</v>
+        <v>0.03729330003261566</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.08817184716463089</v>
+        <v>0.01407001912593842</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1011201590299606</v>
+        <v>0.1036582365632057</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0491577684879303</v>
+        <v>0.009037138894200325</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.07381301373243332</v>
+        <v>0.02375011146068573</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.04043575003743172</v>
+        <v>0.09097342193126678</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0716354176402092</v>
+        <v>0.1981810182332993</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.00177296856418252</v>
+        <v>0.005139895714819431</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.04272365570068359</v>
+        <v>0.05457079783082008</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.006001822650432587</v>
+        <v>0.142734482884407</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2199804335832596</v>
+        <v>0.1284535378217697</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.07562380284070969</v>
+        <v>0.5198414325714111</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2325203418731689</v>
+        <v>0.00167560949921608</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.03580367937684059</v>
+        <v>0.02689577266573906</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0717332735657692</v>
+        <v>0.2586131989955902</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.08450630307197571</v>
+        <v>0.6706234216690063</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1013189256191254</v>
+        <v>0.07114848494529724</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.04039792716503143</v>
+        <v>0.1664115339517593</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.08512863516807556</v>
+        <v>0.2374999076128006</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1549989432096481</v>
+        <v>0.03928536549210548</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.09543481469154358</v>
+        <v>0.3141694664955139</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1293513476848602</v>
+        <v>0.1105800941586494</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01990782283246517</v>
+        <v>0.1987052261829376</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.08582877367734909</v>
+        <v>0.07023946940898895</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.03295654058456421</v>
+        <v>0.1396628320217133</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.04248776659369469</v>
+        <v>0.06870205700397491</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.09692229330539703</v>
+        <v>0.07757763564586639</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01198479160666466</v>
+        <v>0.1284697353839874</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.05680641531944275</v>
+        <v>0.01127934455871582</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.04002328962087631</v>
+        <v>0.05509329587221146</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1138542145490646</v>
+        <v>0.009582009166479111</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.03869879245758057</v>
+        <v>0.0363907665014267</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1478805392980576</v>
+        <v>0.09561393409967422</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02343461848795414</v>
+        <v>0.03600814193487167</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04433226957917213</v>
+        <v>0.004098502919077873</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.03987222164869308</v>
+        <v>0.05134343355894089</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.02537504024803638</v>
+        <v>0.01583832874894142</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1790780276060104</v>
+        <v>0.09705358743667603</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.008893296122550964</v>
+        <v>0.2306451201438904</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.09812341630458832</v>
+        <v>0.09792174398899078</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.1096365302801132</v>
+        <v>0.04723362624645233</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.07249648869037628</v>
+        <v>0.2537739276885986</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.08928930759429932</v>
+        <v>0.2578223645687103</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01698729395866394</v>
+        <v>0.07080020755529404</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.06145558878779411</v>
+        <v>0.04846732318401337</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01626681908965111</v>
+        <v>0.008164118975400925</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1053420975804329</v>
+        <v>0.01700654067099094</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0743352472782135</v>
+        <v>0.1991893351078033</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.07729725539684296</v>
+        <v>0.04217452555894852</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0396515354514122</v>
+        <v>0.02706475183367729</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01896308735013008</v>
+        <v>0.02332529798150063</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01982347667217255</v>
+        <v>0.1364151388406754</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.003952709026634693</v>
+        <v>0.003691749647259712</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.02894648164510727</v>
+        <v>0.02854388020932674</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.004677756689488888</v>
+        <v>0.01738779246807098</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.02650631032884121</v>
+        <v>0.1068881675601006</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.09570001810789108</v>
+        <v>0.03234162926673889</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01482680160552263</v>
+        <v>0.008914459496736526</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.01933075860142708</v>
+        <v>0.04861224442720413</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1509549021720886</v>
+        <v>0.04574398696422577</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.05533282458782196</v>
+        <v>0.07571211457252502</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.1149051114916801</v>
+        <v>0.04824373871088028</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.06752372533082962</v>
+        <v>0.1434581428766251</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1161141917109489</v>
+        <v>0.1162162572145462</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.09847026318311691</v>
+        <v>0.004516782239079475</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.04443990439176559</v>
+        <v>0.1730197966098785</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.08391919732093811</v>
+        <v>0.05088021606206894</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02641551941633224</v>
+        <v>0.06238923966884613</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.08094698190689087</v>
+        <v>0.00475563108921051</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01303982362151146</v>
+        <v>0.1521009206771851</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0144188366830349</v>
+        <v>0.0222315676510334</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.02095720916986465</v>
+        <v>0.03820198774337769</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.00757215591147542</v>
+        <v>0.008313373662531376</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.05403097718954086</v>
+        <v>0.129475399851799</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1983104795217514</v>
+        <v>0.102547399699688</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.05762911960482597</v>
+        <v>0.1011130437254906</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.006956688594073057</v>
+        <v>0.1176287829875946</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1141593754291534</v>
+        <v>0.082644984126091</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.009447156451642513</v>
+        <v>0.1611846536397934</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02636689506471157</v>
+        <v>0.01220195554196835</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.06653554737567902</v>
+        <v>0.3321308493614197</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.07442584633827209</v>
+        <v>0.1756742596626282</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001520430203527212</v>
+        <v>0.006820355542004108</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.1085275411605835</v>
+        <v>0.03202518820762634</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02820536494255066</v>
+        <v>0.07990981638431549</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0038077337667346</v>
+        <v>0.0491829514503479</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.003883265191689134</v>
+        <v>0.1132903695106506</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0632811039686203</v>
+        <v>0.06891582161188126</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.06520085781812668</v>
+        <v>0.06057535856962204</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.01456515584141016</v>
+        <v>0.1021963730454445</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0428331159055233</v>
+        <v>0.06217992678284645</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01101802848279476</v>
+        <v>0.02281901612877846</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.03772025927901268</v>
+        <v>0.121631033718586</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.04112237319350243</v>
+        <v>0.03983542695641518</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01305154152214527</v>
+        <v>0.02847215719521046</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.09550832957029343</v>
+        <v>0.05007693916559219</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.02748183161020279</v>
+        <v>0.0664634108543396</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.007338530384004116</v>
+        <v>0.01956033334136009</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.07417180389165878</v>
+        <v>0.08041739463806152</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.04880553856492043</v>
+        <v>0.04520286619663239</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.1406455039978027</v>
+        <v>0.001429326832294464</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.07026150822639465</v>
+        <v>0.1720469892024994</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.08860500156879425</v>
+        <v>0.03653135895729065</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.03908937051892281</v>
+        <v>0.06931308656930923</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.008476370945572853</v>
+        <v>0.01541219837963581</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.09387154132127762</v>
+        <v>0.1909297704696655</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.03964762017130852</v>
+        <v>0.02705355733633041</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.03477735444903374</v>
+        <v>0.1084042489528656</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.03690757229924202</v>
+        <v>0.02794075943529606</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.05392995476722717</v>
+        <v>0.05483536794781685</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.09034878015518188</v>
+        <v>0.09904917329549789</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.05147568508982658</v>
+        <v>0.06472702324390411</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.08084822446107864</v>
+        <v>0.05638530850410461</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03979147225618362</v>
+        <v>0.08878687024116516</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.1068931967020035</v>
+        <v>0.173735648393631</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.06762824207544327</v>
+        <v>0.03787913918495178</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.01694219000637531</v>
+        <v>0.04837135225534439</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.06567958742380142</v>
+        <v>0.09549235552549362</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1010791808366776</v>
+        <v>0.02345912344753742</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.03294269740581512</v>
+        <v>0.1771242320537567</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.08453842252492905</v>
+        <v>0.005841606296598911</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.02965608239173889</v>
+        <v>0.01431673858314753</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.03652589023113251</v>
+        <v>0.03204662352800369</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.003464055480435491</v>
+        <v>0.1372276842594147</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.01399687398225069</v>
+        <v>0.001209482550621033</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02572601661086082</v>
+        <v>0.01606994122266769</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01422760915011168</v>
+        <v>0.009847449138760567</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.07925554364919662</v>
+        <v>0.02442295663058758</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.08037620037794113</v>
+        <v>0.08566276729106903</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.03744924813508987</v>
+        <v>0.01332208514213562</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.1117197275161743</v>
+        <v>0.1729075461626053</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.07579993456602097</v>
+        <v>0.07712309807538986</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.05671624094247818</v>
+        <v>0.1594229936599731</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.05654271692037582</v>
+        <v>0.07111727446317673</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.09474019706249237</v>
+        <v>0.07995792478322983</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.05603250488638878</v>
+        <v>0.159436970949173</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0720435157418251</v>
+        <v>0.06839775294065475</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.1791405975818634</v>
+        <v>0.3499903976917267</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.05329214781522751</v>
+        <v>0.03112018294632435</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.09185618162155151</v>
+        <v>0.200702041387558</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.07310803979635239</v>
+        <v>0.1267289668321609</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.05153421312570572</v>
+        <v>0.08309736102819443</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.04334434494376183</v>
+        <v>0.1338207125663757</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02471853792667389</v>
+        <v>0.1316115111112595</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.07714804261922836</v>
+        <v>0.04730986058712006</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.01329870242625475</v>
+        <v>0.1392429620027542</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1499562412500381</v>
+        <v>0.05144687369465828</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.004277533851563931</v>
+        <v>0.02406468242406845</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1086322665214539</v>
+        <v>0.02111739106476307</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.05731151252985001</v>
+        <v>0.3859622776508331</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.1327351182699203</v>
+        <v>0.1573798060417175</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02354480884969234</v>
+        <v>0.01981906965374947</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.05487038195133209</v>
+        <v>0.02627955935895443</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.01842762157320976</v>
+        <v>0.02548835426568985</v>
       </c>
     </row>
     <row r="4">
@@ -2711,1140 +2711,1140 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0102633461356163</v>
+        <v>0.0002082900755340233</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00213201018050313</v>
+        <v>0.002794719766825438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008566792123019695</v>
+        <v>0.000223240815103054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002152226632460952</v>
+        <v>0.0004778216243721545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00222460157237947</v>
+        <v>0.0004229714104440063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004008604155387729</v>
+        <v>0.001151087577454746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003170009702444077</v>
+        <v>1.228600740432739e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003200116101652384</v>
+        <v>0.0003384615120012313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009746305295266211</v>
+        <v>7.979146903380752e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008947893045842648</v>
+        <v>0.0002558781707193702</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000968162901699543</v>
+        <v>0.002668379107490182</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008574258536100388</v>
+        <v>0.0001622683630557731</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001192917232401669</v>
+        <v>0.001004836405627429</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005584182217717171</v>
+        <v>0.0006562566850334406</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001017354894429445</v>
+        <v>0.001440655440092087</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00457199988886714</v>
+        <v>0.0005312583525665104</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00357978162355721</v>
+        <v>0.0004384684143587947</v>
       </c>
       <c r="R5" t="n">
-        <v>0.003429492469877005</v>
+        <v>0.0002485283475834876</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0007918361225165427</v>
+        <v>0.0001547366991871968</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002652348484843969</v>
+        <v>0.0003556305600795895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0004797059809789062</v>
+        <v>0.000135377689730376</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0003629920538514853</v>
+        <v>0.0001895754103315994</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002257025334984064</v>
+        <v>2.401218443992548e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001269100699573755</v>
+        <v>8.58640851220116e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.255806172499433e-05</v>
+        <v>9.706476703286171e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002900791121646762</v>
+        <v>5.678020534105599e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00093262386508286</v>
+        <v>0.000188769176020287</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0006488720537163317</v>
+        <v>0.0003285130951553583</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0005553403170779347</v>
+        <v>0.000377191900042817</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0008528842590749264</v>
+        <v>0.0005754823796451092</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001380597823299468</v>
+        <v>0.0001936790649779141</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.001220762846060097</v>
+        <v>0.0004351494426373392</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001800972619093955</v>
+        <v>1.041586074279621e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001162843080237508</v>
+        <v>0.000377646298147738</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001520989928394556</v>
+        <v>5.595944458036683e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001380979199893773</v>
+        <v>0.0003310299944132566</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.001523404964245856</v>
+        <v>3.353185093146749e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001366805750876665</v>
+        <v>0.0006787324673496187</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0006354079232551157</v>
+        <v>0.0001967249263543636</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002219257177785039</v>
+        <v>1.795894058886915e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.002149216830730438</v>
+        <v>0.0004287046613171697</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001698817708529532</v>
+        <v>0.0002453305933158845</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.548669964307919e-05</v>
+        <v>1.116241764975712e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0003588027320802212</v>
+        <v>0.000121025565022137</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0002692105481401086</v>
+        <v>6.039882646291517e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.004619905259460211</v>
+        <v>0.000380976009182632</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008733682334423065</v>
+        <v>0.001907986821606755</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.004048037342727184</v>
+        <v>0.0003228698042221367</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.000316701247356832</v>
+        <v>0.0001577681250637397</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.001403940608724952</v>
+        <v>0.0005399949150159955</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.002897094469517469</v>
+        <v>9.502329339738935e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001106170122511685</v>
+        <v>0.0005688645178452134</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.00184979138430208</v>
+        <v>0.0001949285651789978</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.002785125048831105</v>
+        <v>9.147592936642468e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.003428909927606583</v>
+        <v>4.582190740620717e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.003245735540986061</v>
+        <v>0.0006618303013965487</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.003101806156337261</v>
+        <v>0.0002089837653329596</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0005042720586061478</v>
+        <v>0.0001737878628773615</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0009728497243486345</v>
+        <v>0.0009049692889675498</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001841497840359807</v>
+        <v>0.0008131615468300879</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00117750174831599</v>
+        <v>0.0003774423676077276</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.002033535623922944</v>
+        <v>1.930769030877855e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.001482564490288496</v>
+        <v>7.538714271504432e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001587712904438376</v>
+        <v>0.0002490611805114895</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002283746143803</v>
+        <v>0.0004146486171521246</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0006354336510412395</v>
+        <v>2.175165718654171e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001147738890722394</v>
+        <v>0.0001065888354787603</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.00316058867610991</v>
+        <v>7.506600377382711e-05</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0001658039109315723</v>
+        <v>9.304834384238347e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0005981369176879525</v>
+        <v>5.675471038557589e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001058580121025443</v>
+        <v>0.0001002387871267274</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.000784610107075423</v>
+        <v>3.244302934035659e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.003177575534209609</v>
+        <v>0.0003304221318103373</v>
       </c>
       <c r="BV5" t="n">
-        <v>5.762334330938756e-05</v>
+        <v>0.001016247435472906</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001960120163857937</v>
+        <v>7.123395334929228e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002539485692977905</v>
+        <v>3.02014741464518e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.001815741881728172</v>
+        <v>0.0001846712839324027</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0005827042041346431</v>
+        <v>4.083658495801501e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0005133200320415199</v>
+        <v>0.000457172718597576</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.001782127772457898</v>
+        <v>1.360670921712881e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0003832068468909711</v>
+        <v>0.0001426426024409011</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002084973268210888</v>
+        <v>0.0001518621720606461</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0005893587949685752</v>
+        <v>0.000471574574476108</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001563914003781974</v>
+        <v>2.047638190560974e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0008362483931705356</v>
+        <v>0.0002178851427743211</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0007161306566558778</v>
+        <v>9.155159932561219e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.000297916994895786</v>
+        <v>0.0001844017242547125</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0005728294490836561</v>
+        <v>0.0002589740906842053</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0008023772388696671</v>
+        <v>3.581638156902045e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>4.967343920725398e-05</v>
+        <v>2.183823380619287e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0009379414841532707</v>
+        <v>0.0002917656383942813</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001736666541546583</v>
+        <v>0.000431280757766217</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0001502963132224977</v>
+        <v>0.0001687795884208754</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.000606211950071156</v>
+        <v>0.000192501989658922</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001345584518276155</v>
+        <v>2.135045906470623e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.450119063723832e-05</v>
+        <v>0.000117781077278778</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.002468599239364266</v>
+        <v>0.0005491551128216088</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001192076131701469</v>
+        <v>0.0006813568179495633</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001466800225898623</v>
+        <v>0.0002675790165085346</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002184196375310421</v>
+        <v>0.0001422437781002373</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0001150633761426434</v>
+        <v>0.000437555048847571</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.001524223713204265</v>
+        <v>3.581615601433441e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0006551225669682026</v>
+        <v>0.0002137717674486339</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0006685880944132805</v>
+        <v>2.033443342952523e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.241198671981692e-06</v>
+        <v>0.0002615482080727816</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0003496173303574324</v>
+        <v>0.0001705103786662221</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0007175186183303595</v>
+        <v>2.052093441307079e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>8.53063611430116e-05</v>
+        <v>1.237692777067423e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0004184612480457872</v>
+        <v>2.7934365789406e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.003293053014203906</v>
+        <v>0.0002551862853579223</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001115391147322953</v>
+        <v>0.0005999075947329402</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0006714834016747773</v>
+        <v>7.099731010384858e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0004241818678565323</v>
+        <v>0.0001161374966613948</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.000301889784168452</v>
+        <v>0.0005603097379207611</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0008010742021724582</v>
+        <v>0.0002789502323139459</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001296438975259662</v>
+        <v>0.0003758782404474914</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00217688106931746</v>
+        <v>0.000217650958802551</v>
       </c>
       <c r="DN5" t="n">
-        <v>6.930154631845653e-05</v>
+        <v>6.709492299705744e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.002566406968981028</v>
+        <v>0.0003411537909414619</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.000129189487779513</v>
+        <v>0.0001870730775408447</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0003698929212987423</v>
+        <v>0.0005434288759715855</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0003810451598837972</v>
+        <v>2.790459620882757e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0004301896842662245</v>
+        <v>0.0004795655841007829</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0009280468802899122</v>
+        <v>0.0003166988608427346</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0007250064518302679</v>
+        <v>0.0003468990325927734</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.001284399768337607</v>
+        <v>7.582941907458007e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0007239357801154256</v>
+        <v>0.0002152997476514429</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.000958512129727751</v>
+        <v>0.0001184516513603739</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0002573759411461651</v>
+        <v>4.961319064022973e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0009931825334206223</v>
+        <v>0.0005070784827694297</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001492985058575869</v>
+        <v>0.0001701569999568164</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0008657954749651253</v>
+        <v>0.0003600090858526528</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0005682389019057155</v>
+        <v>0.0003093818086199462</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.000179247377673164</v>
+        <v>0.0007713304366916418</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0005382179515436292</v>
+        <v>1.135760976467282e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.002929221838712692</v>
+        <v>2.116583345923573e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0004605879657901824</v>
+        <v>0.0004253157530911267</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.001372505212202668</v>
+        <v>8.297751264763065e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0009604250080883503</v>
+        <v>0.0001124023692682385</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0005008364096283913</v>
+        <v>1.921185321407393e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.001183491083793342</v>
+        <v>0.0001186036242870614</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0002618875005282462</v>
+        <v>0.0002726304228417575</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0004559017834253609</v>
+        <v>9.296203643316403e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0007809873204678297</v>
+        <v>6.421800935640931e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0004689096531365067</v>
+        <v>8.646168134873733e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0008921791450120509</v>
+        <v>0.0003978912136517465</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0005768301780335605</v>
+        <v>0.0001483021187596023</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001452560420148075</v>
+        <v>9.493153629591689e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001308643259108067</v>
+        <v>0.0005110061028972268</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.002197814872488379</v>
+        <v>0.0003873752721119672</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0004143562982790172</v>
+        <v>0.0001442956418031827</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001151106669567525</v>
+        <v>0.0001633807114558294</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.00111167156137526</v>
+        <v>0.0002011788164963946</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002195253968238831</v>
+        <v>0.0001181679908768274</v>
       </c>
       <c r="EY5" t="n">
-        <v>4.945202090311795e-05</v>
+        <v>0.0004430028493516147</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.001676861080341041</v>
+        <v>1.61291791300755e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0006304795970208943</v>
+        <v>0.0001403096539434046</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0002898014790844172</v>
+        <v>8.291242556879297e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.103373117279261e-05</v>
+        <v>0.0002083766303258017</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0004924467648379505</v>
+        <v>0.0001803250343073159</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0008210239466279745</v>
+        <v>0.0001377081352984533</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0002349625428905711</v>
+        <v>3.230298170819879e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001303265569731593</v>
+        <v>9.628508269088343e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0008103377185761929</v>
+        <v>0.0001775567216100171</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001587885548360646</v>
+        <v>9.126862278208137e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0007070721476338804</v>
+        <v>0.0006365187000483274</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.000308403599774465</v>
+        <v>0.0004576024657581002</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0007110991864465177</v>
+        <v>0.0001794300478650257</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001534156152047217</v>
+        <v>0.0002918432001024485</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.003278085729107261</v>
+        <v>0.0002810831356327981</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0009057587594725192</v>
+        <v>0.0001681107532931492</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0006286982097662985</v>
+        <v>2.841698005795479e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.004615189973264933</v>
+        <v>0.001279828371480107</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0006406897446140647</v>
+        <v>8.569904457544908e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001496899174526334</v>
+        <v>0.0005007335566915572</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.001079679350368679</v>
+        <v>0.0006501305033452809</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0002705432416405529</v>
+        <v>0.0001123758192989044</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001047041732817888</v>
+        <v>0.0006877157720737159</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0001514786563348025</v>
+        <v>0.0001561276440043002</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001157302991487086</v>
+        <v>0.0001644100120756775</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0004290959041099995</v>
+        <v>0.0002073681826004758</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.003073537722229958</v>
+        <v>0.0004611971380654722</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0006503255572170019</v>
+        <v>0.000391948182368651</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.002974173054099083</v>
+        <v>2.379321085754782e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0008897884981706738</v>
+        <v>0.0002993284142576158</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001826470252126455</v>
+        <v>2.67523828370031e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.000524374539963901</v>
+        <v>0.0002805834519676864</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.001932854647748172</v>
+        <v>6.569064862560481e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.001281488570384681</v>
+        <v>0.0001161560576292686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.07783935964107513</v>
+        <v>0.000504637137055397</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007479934021830559</v>
+        <v>0.05463951826095581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07863941788673401</v>
+        <v>0.003254338400438428</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0212937593460083</v>
+        <v>0.02286634966731071</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01257833652198315</v>
+        <v>0.005229020956903696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002924331929534674</v>
+        <v>0.0454237125813961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004818860907107592</v>
+        <v>0.002133742440491915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01839711144566536</v>
+        <v>0.01511990651488304</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01884431764483452</v>
+        <v>0.00101829192135483</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07939521968364716</v>
+        <v>0.006521172821521759</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007244427222758532</v>
+        <v>0.0529009997844696</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07545965164899826</v>
+        <v>0.0001501943916082382</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01450421940535307</v>
+        <v>0.02419457584619522</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02044282667338848</v>
+        <v>0.001522162696346641</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002962237689644098</v>
+        <v>0.039264976978302</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01091987453401089</v>
+        <v>0.003403782611712813</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.008863097988069057</v>
+        <v>0.006819161120802164</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02951772511005402</v>
+        <v>0.0007442879723384976</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004567361902445555</v>
+        <v>0.0040231728926301</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02318394184112549</v>
+        <v>0.00443277508020401</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002707371488213539</v>
+        <v>0.001943801529705524</v>
       </c>
       <c r="V6" t="n">
-        <v>0.005281002260744572</v>
+        <v>0.002646591747179627</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01695126853883266</v>
+        <v>0.004454960580915213</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00421083765104413</v>
+        <v>0.0009410034981556237</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.007790970616042614</v>
+        <v>0.001381309470161796</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0260189101099968</v>
+        <v>0.002300333464518189</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.005739429965615273</v>
+        <v>0.005465687718242407</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.002316243480890989</v>
+        <v>0.000795160885900259</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.003859132528305054</v>
+        <v>0.002931397873908281</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.001589385792613029</v>
+        <v>0.004599334206432104</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001151515636593103</v>
+        <v>0.003993544727563858</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.002078518504276872</v>
+        <v>0.0007182041881605983</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01213711686432362</v>
+        <v>0.003846905659884214</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.009759204462170601</v>
+        <v>0.002469500293955207</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01824167370796204</v>
+        <v>0.004403523169457912</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.009347873739898205</v>
+        <v>0.001008389517664909</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.01332026720046997</v>
+        <v>0.001253860420547426</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.02222972735762596</v>
+        <v>0.01090519782155752</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.008442661724984646</v>
+        <v>0.003614441026002169</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01566895470023155</v>
+        <v>0.0007655708468519151</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.005945095326751471</v>
+        <v>0.006046996917575598</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01708732545375824</v>
+        <v>0.006326804868876934</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.002207969548180699</v>
+        <v>0.0007479030173271894</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.000368392706150189</v>
+        <v>0.004073158837854862</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.002470860490575433</v>
+        <v>0.003227323526516557</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.03137561306357384</v>
+        <v>0.007752323523163795</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.02050414681434631</v>
+        <v>0.03662922233343124</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.04688527435064316</v>
+        <v>0.004870238248258829</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.002737366827204823</v>
+        <v>0.002193887019529939</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.001182839507237077</v>
+        <v>0.006400733720511198</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01629229448735714</v>
+        <v>0.01954136788845062</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01280879788100719</v>
+        <v>0.006001229397952557</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.01397669408470392</v>
+        <v>0.001113321399316192</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.007302510552108288</v>
+        <v>0.004595036152750254</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.01366023439913988</v>
+        <v>0.004269056022167206</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.009061410091817379</v>
+        <v>0.008592568337917328</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.02188209630548954</v>
+        <v>0.008174017071723938</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.004004687536507845</v>
+        <v>0.003133086953312159</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01167224906384945</v>
+        <v>0.01322357356548309</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.007335039786994457</v>
+        <v>0.0157051756978035</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0009125201031565666</v>
+        <v>0.01080186478793621</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.01842602156102657</v>
+        <v>0.001270482782274485</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001957914559170604</v>
+        <v>0.0001616548979654908</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.006995033472776413</v>
+        <v>0.001530060777440667</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.005501978099346161</v>
+        <v>0.0005676830187439919</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.01534085441380739</v>
+        <v>0.0002663512714207172</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.003834968898445368</v>
+        <v>0.003456297097727656</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03651328757405281</v>
+        <v>0.005888261832296848</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.005934441462159157</v>
+        <v>0.0006059084553271532</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.009970378130674362</v>
+        <v>0.002721224911510944</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.009561868384480476</v>
+        <v>0.001503307837992907</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.003585489001125097</v>
+        <v>0.00176338548772037</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0285832341760397</v>
+        <v>0.006878144107758999</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.009673194959759712</v>
+        <v>0.01906957663595676</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.01877631619572639</v>
+        <v>0.001562613528221846</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.01977435871958733</v>
+        <v>0.005277046002447605</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.001529817469418049</v>
+        <v>3.157544415444136e-05</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.01529684104025364</v>
+        <v>0.00847988948225975</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.009093319997191429</v>
+        <v>0.005050357431173325</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.01197873242199421</v>
+        <v>0.003206705674529076</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.001767338253557682</v>
+        <v>0.00557684525847435</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.01569543965160847</v>
+        <v>0.001359336543828249</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.01720977202057838</v>
+        <v>0.009028634056448936</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.01476398110389709</v>
+        <v>0.002226232085376978</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.003561340272426605</v>
+        <v>0.004653139505535364</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0006994858267717063</v>
+        <v>0.001364003401249647</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0006146373343653977</v>
+        <v>0.007781039923429489</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.001469849376007915</v>
+        <v>0.003454797435551882</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.005920920521020889</v>
+        <v>0.001254185568541288</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.002997689647600055</v>
+        <v>0.002785455202683806</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.004435882903635502</v>
+        <v>0.004699212033301592</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01850308105349541</v>
+        <v>3.089313395321369e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0005397482309490442</v>
+        <v>0.0007511689327657223</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.005235905293375254</v>
+        <v>0.007740950211882591</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.02191230095922947</v>
+        <v>0.0007889644475653768</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.0004177246009930968</v>
+        <v>0.001265142462216318</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.01307650376111269</v>
+        <v>0.007861209101974964</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.008735784329473972</v>
+        <v>0.01032986864447594</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.02431821078062057</v>
+        <v>0.00330548663623631</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.01296964101493359</v>
+        <v>0.0008981382707133889</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.01446688827127218</v>
+        <v>0.008164831437170506</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.01390861440449953</v>
+        <v>0.001409486052580178</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.003889611689373851</v>
+        <v>0.005634348373860121</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01035863067954779</v>
+        <v>0.0001704160531517118</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.002838188782334328</v>
+        <v>0.008814130909740925</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.003551572561264038</v>
+        <v>0.002924376167356968</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.004181256052106619</v>
+        <v>0.002881154417991638</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.001767005072906613</v>
+        <v>0.000946394691709429</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.008650288917124271</v>
+        <v>0.00115019513759762</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.04070283472537994</v>
+        <v>0.005999227054417133</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.015674889087677</v>
+        <v>0.002368464134633541</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.004913622979074717</v>
+        <v>0.008384726010262966</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.004054041113704443</v>
+        <v>0.01249940879642963</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0002269038232043386</v>
+        <v>0.004305227659642696</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.004096340388059616</v>
+        <v>0.005166088230907917</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.02138732373714447</v>
+        <v>0.005711513105779886</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.01876903884112835</v>
+        <v>0.005512556992471218</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.001975421328097582</v>
+        <v>0.0007092040032148361</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.01814284734427929</v>
+        <v>0.001107484335079789</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.000283857953036204</v>
+        <v>0.0003964192001149058</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.002799639711156487</v>
+        <v>0.008424215018749237</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.004396094940602779</v>
+        <v>0.002452872926369309</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.009713936597108841</v>
+        <v>0.005078520625829697</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.01479177456349134</v>
+        <v>0.002052052179351449</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.005797518882900476</v>
+        <v>4.645483568310738e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01091998163610697</v>
+        <v>0.003124230075627565</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.004160055890679359</v>
+        <v>0.001360095106065273</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.001318808645009995</v>
+        <v>0.001584687503054738</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.002151065738871694</v>
+        <v>0.0007544099353253841</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.0006987451342865825</v>
+        <v>0.004155601840466261</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.00757462065666914</v>
+        <v>0.001909473678097129</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.00380339939147234</v>
+        <v>0.0005539314006455243</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.001549221342429519</v>
+        <v>0.003035166533663869</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.01433334965258837</v>
+        <v>0.002624014392495155</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.007846199907362461</v>
+        <v>0.002449675230309367</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.02697207592427731</v>
+        <v>0.001126374350860715</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.01801108941435814</v>
+        <v>0.00847751647233963</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.01293315272778273</v>
+        <v>0.002433502813801169</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.008504763245582581</v>
+        <v>0.001017187139950693</v>
       </c>
       <c r="EJ6" t="n">
-        <v>8.869465091265738e-05</v>
+        <v>0.002982671372592449</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.009959475137293339</v>
+        <v>0.006917377933859825</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.005174907855689526</v>
+        <v>0.003737853607162833</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.01069262810051441</v>
+        <v>0.00138885376509279</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.004067059140652418</v>
+        <v>0.001480138627812266</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.003663446288555861</v>
+        <v>0.001523162936791778</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01590893045067787</v>
+        <v>0.00850385706871748</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.007693461142480373</v>
+        <v>0.0001874929293990135</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.01104578748345375</v>
+        <v>0.002455153036862612</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.001116495812311769</v>
+        <v>0.0009827928151935339</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.02089621685445309</v>
+        <v>0.01113893091678619</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.01455540396273136</v>
+        <v>0.003037836868315935</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.01174143236130476</v>
+        <v>0.006538667250424623</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.01081588864326477</v>
+        <v>0.0003498436417430639</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.012670180760324</v>
+        <v>0.0001426069648005068</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01248373370617628</v>
+        <v>0.007918640971183777</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.0151057243347168</v>
+        <v>1.936487387865782e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.004823544062674046</v>
+        <v>0.004825215321034193</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.004889518022537231</v>
+        <v>0.001064315438270569</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.003747390583157539</v>
+        <v>0.007366949692368507</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.002776470500975847</v>
+        <v>0.004142727237194777</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.006163612939417362</v>
+        <v>0.001261277124285698</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.002977483905851841</v>
+        <v>0.002450086642056704</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.01020919904112816</v>
+        <v>0.0003561445337254554</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.01063341461122036</v>
+        <v>0.001402708236128092</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.01002403534948826</v>
+        <v>0.0006735087372362614</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.01306525338441133</v>
+        <v>0.008248580619692802</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.003114619292318821</v>
+        <v>2.754075103439391e-05</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.005454198457300663</v>
+        <v>0.001920811831951141</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.009887488558888435</v>
+        <v>0.002484833123162389</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.02036255225539207</v>
+        <v>0.002350443741306663</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.01220741774886847</v>
+        <v>1.75024033524096e-05</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.008009607903659344</v>
+        <v>0.0005258697783574462</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.04368425905704498</v>
+        <v>0.02012147940695286</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.006678301841020584</v>
+        <v>0.002847364405170083</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.00138000794686377</v>
+        <v>0.007267260458320379</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0030861203558743</v>
+        <v>0.007235960103571415</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.01011638250201941</v>
+        <v>0.003051577601581812</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.0003515365533530712</v>
+        <v>0.006806392688304186</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.008673038333654404</v>
+        <v>0.001150179072283208</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.01453093532472849</v>
+        <v>0.0003194560413248837</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.007025625556707382</v>
+        <v>0.003300257725641131</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.009864319115877151</v>
+        <v>0.005373300053179264</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.002047422109171748</v>
+        <v>0.0003582672798074782</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.003095782827585936</v>
+        <v>0.0002865976421162486</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.006349903997033834</v>
+        <v>0.01098682917654514</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0230761282145977</v>
+        <v>0.003122144844383001</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.005289492662996054</v>
+        <v>0.0130847804248333</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.01568989269435406</v>
+        <v>0.0002439978998154402</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.004495366010814905</v>
+        <v>0.0008329841075465083</v>
       </c>
     </row>
     <row r="7">
@@ -4418,571 +4418,571 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003523046849295497</v>
+        <v>0.002652636729180813</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0005341707728803158</v>
+        <v>0.06739312410354614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002717653755098581</v>
+        <v>0.002688653534278274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001713266596198082</v>
+        <v>0.007088016718626022</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000950384302996099</v>
+        <v>0.005232394672930241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003561546327546239</v>
+        <v>0.05271487683057785</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006831526989117265</v>
+        <v>0.004325412213802338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005367344128899276</v>
+        <v>0.004264402203261852</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001038126298226416</v>
+        <v>0.03083644062280655</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003610701067373157</v>
+        <v>0.005968520417809486</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000378565164282918</v>
+        <v>0.06624037027359009</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003167232498526573</v>
+        <v>0.002136701485142112</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000855113728903234</v>
+        <v>0.016200827434659</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001194126307382248</v>
+        <v>0.01677824929356575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002509402693249285</v>
+        <v>0.04055270180106163</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001149316318333149</v>
+        <v>0.005873911548405886</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005559477722272277</v>
+        <v>0.002726743929088116</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001600169576704502</v>
+        <v>0.01548258028924465</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000346522603649646</v>
+        <v>0.002491762628778815</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0007888994296081364</v>
+        <v>0.0004997481591999531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0001146340509876609</v>
+        <v>0.01433118246495724</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0003185889218002558</v>
+        <v>0.002126271603628993</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0007069173152558506</v>
+        <v>0.005026232451200485</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0002391032176092267</v>
+        <v>0.01042973715811968</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000345101288985461</v>
+        <v>0.0009438994457013905</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007812978583388031</v>
+        <v>0.004064604640007019</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0004767040663864464</v>
+        <v>0.001800136873498559</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.222023072652519e-05</v>
+        <v>0.00701360497623682</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0001690243370831013</v>
+        <v>0.006060032173991203</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0003450688964221627</v>
+        <v>0.01251434255391359</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0002222174080088735</v>
+        <v>0.003484718035906553</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0001905124518088996</v>
+        <v>0.006362833082675934</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0002273019345011562</v>
+        <v>0.003467663889750838</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0003435164398979396</v>
+        <v>0.0009897372219711542</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.000838202890008688</v>
+        <v>0.001904178410768509</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0007910331478342414</v>
+        <v>0.004080479964613914</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0006280425586737692</v>
+        <v>0.005925879813730717</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001313220243901014</v>
+        <v>0.003348925150930882</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0002036170335486531</v>
+        <v>0.01801459491252899</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0009651891305111349</v>
+        <v>0.0002026337606366724</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0002725344384089112</v>
+        <v>0.006447803229093552</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0001856217859312892</v>
+        <v>0.008329961448907852</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.265177706955001e-05</v>
+        <v>0.005180397536605597</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.172242814907804e-06</v>
+        <v>0.002237850334495306</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.476104625908192e-05</v>
+        <v>0.003833157476037741</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001411819481290877</v>
+        <v>0.003712733974680305</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001153318560682237</v>
+        <v>0.05160756781697273</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.001655726227909327</v>
+        <v>0.02356791868805885</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0004278898995835334</v>
+        <v>0.005508217960596085</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.56710471957922e-05</v>
+        <v>0.01696364767849445</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.001017026486806571</v>
+        <v>0.0132571654394269</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0004721141885966063</v>
+        <v>0.00551231112331152</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0006088977097533643</v>
+        <v>0.004239324014633894</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0004352277028374374</v>
+        <v>0.01765488088130951</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0008028114680200815</v>
+        <v>0.001531837042421103</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0002073070645565167</v>
+        <v>0.01928171887993813</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0009352893102914095</v>
+        <v>0.009936450980603695</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0001809268433135003</v>
+        <v>0.001588077750056982</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0002934279036708176</v>
+        <v>0.007085882127285004</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0005864828708581626</v>
+        <v>0.03368582203984261</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0006673684110864997</v>
+        <v>0.0006506610661745071</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0008781818905845284</v>
+        <v>0.004785002674907446</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0005275302100926638</v>
+        <v>0.01058648619800806</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0004958592471666634</v>
+        <v>0.01029995828866959</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0006029336946085095</v>
+        <v>0.003147267270833254</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0006057813297957182</v>
+        <v>0.005620991811156273</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001583532139193267</v>
+        <v>0.005047039594501257</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0009629116393625736</v>
+        <v>0.005549162626266479</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0002164301840821281</v>
+        <v>0.001709785778075457</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0002539764100220054</v>
+        <v>0.007906483486294746</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0003547728410921991</v>
+        <v>0.007137001492083073</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0002566110051702708</v>
+        <v>0.002864734269678593</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001324188429862261</v>
+        <v>0.003029973246157169</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0007945535471662879</v>
+        <v>0.02299295179545879</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0005680082831531763</v>
+        <v>0.0178394503891468</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001352682244032621</v>
+        <v>0.005662047769874334</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0003791738126892596</v>
+        <v>0.01118534337729216</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0002146503538824618</v>
+        <v>0.0003731378819793463</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0002572644734755158</v>
+        <v>0.005000995472073555</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0005031274049542844</v>
+        <v>0.001924503361806273</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0003058701404370368</v>
+        <v>0.00610068254172802</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0007160239038057625</v>
+        <v>0.0001785983331501484</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.001046174904331565</v>
+        <v>0.01043236628174782</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0005326612736098468</v>
+        <v>0.003790696384385228</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0002020319225266576</v>
+        <v>0.0009439175482839346</v>
       </c>
       <c r="CH8" t="n">
-        <v>9.668413258623332e-05</v>
+        <v>0.0005470699397847056</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0001854115980677307</v>
+        <v>0.01209590211510658</v>
       </c>
       <c r="CJ8" t="n">
-        <v>9.999490430345759e-05</v>
+        <v>0.002134151756763458</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0002266662777401507</v>
+        <v>0.003123276634141803</v>
       </c>
       <c r="CL8" t="n">
-        <v>4.621106927515939e-05</v>
+        <v>0.0003260553348809481</v>
       </c>
       <c r="CM8" t="n">
-        <v>7.565935084130615e-05</v>
+        <v>0.004473192617297173</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.0006482954486273229</v>
+        <v>0.01255025807768106</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0003936863504350185</v>
+        <v>0.001504850341007113</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0001424013171344995</v>
+        <v>0.01084636710584164</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0005193323013372719</v>
+        <v>0.002218380803242326</v>
       </c>
       <c r="CR8" t="n">
-        <v>7.978491339599714e-05</v>
+        <v>0.002053875476121902</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0005263072671368718</v>
+        <v>0.001147238188423216</v>
       </c>
       <c r="CT8" t="n">
-        <v>6.731936446158215e-05</v>
+        <v>0.01597845368087292</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0005767279071733356</v>
+        <v>0.01058419700711966</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0006407264154404402</v>
+        <v>0.0004213873180560768</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0009835525415837765</v>
+        <v>0.009806368499994278</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0006169874686747789</v>
+        <v>0.00525091215968132</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0001496679906267673</v>
+        <v>0.0001895808964036405</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0005845836130902171</v>
+        <v>0.0008616666309535503</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0001620924449525774</v>
+        <v>0.01142170187085867</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0001488140114815906</v>
+        <v>0.0008667994989082217</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0001407781091984361</v>
+        <v>0.002206546254456043</v>
       </c>
       <c r="DD8" t="n">
-        <v>5.934950968367048e-05</v>
+        <v>0.002411033725365996</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0003455941914580762</v>
+        <v>0.002283165929839015</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.001956216990947723</v>
+        <v>0.008151921443641186</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0005278821918182075</v>
+        <v>0.006799660623073578</v>
       </c>
       <c r="DH8" t="n">
-        <v>3.148475661873817e-05</v>
+        <v>0.002018313854932785</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0003703739785123616</v>
+        <v>0.02832826972007751</v>
       </c>
       <c r="DJ8" t="n">
-        <v>8.803457603789866e-06</v>
+        <v>0.01318630110472441</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0002518668479751796</v>
+        <v>3.075751010328531e-05</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0002358603815082461</v>
+        <v>0.006451849825680256</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00034285694709979</v>
+        <v>0.0119355283677578</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0001435827289242297</v>
+        <v>0.004642294719815254</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.001031127525493503</v>
+        <v>0.0006841002032160759</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0002327589318156242</v>
+        <v>0.0005270250840112567</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0002365487162023783</v>
+        <v>2.233870327472687e-05</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0001427690294804052</v>
+        <v>0.0001223336439579725</v>
       </c>
       <c r="DS8" t="n">
-        <v>3.857517003780231e-05</v>
+        <v>0.00562827754765749</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0003587053506635129</v>
+        <v>0.00333117600530386</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.961210364243016e-05</v>
+        <v>0.008521136827766895</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0003550985711626709</v>
+        <v>0.006355581805109978</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0002220735332230106</v>
+        <v>0.0004646774614229798</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0002229999226983637</v>
+        <v>0.003119473345577717</v>
       </c>
       <c r="DY8" t="n">
-        <v>3.358252070029266e-05</v>
+        <v>0.01046782359480858</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.039996277540922e-06</v>
+        <v>0.0003586282255128026</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.000865010020788759</v>
+        <v>0.000726181548088789</v>
       </c>
       <c r="EB8" t="n">
-        <v>1.002709177555516e-05</v>
+        <v>0.003090072423219681</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.000141349810292013</v>
+        <v>0.0006167686078697443</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0006502008764073253</v>
+        <v>0.0108023677021265</v>
       </c>
       <c r="EE8" t="n">
-        <v>3.029265280929394e-05</v>
+        <v>0.002765540732070804</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.001254366710782051</v>
+        <v>0.00154106121044606</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.001025644596666098</v>
+        <v>0.01378062553703785</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0005512122297659516</v>
+        <v>0.005746988579630852</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0003394731320440769</v>
+        <v>0.003883043071255088</v>
       </c>
       <c r="EJ8" t="n">
-        <v>9.106391371460631e-05</v>
+        <v>0.006337877828627825</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0006185704842209816</v>
+        <v>0.006987164262682199</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0002536865358706564</v>
+        <v>0.0008101174607872963</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0004470000567380339</v>
+        <v>0.002559755463153124</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0003032528911717236</v>
+        <v>0.0006365561857819557</v>
       </c>
       <c r="EO8" t="n">
-        <v>1.126543520513223e-05</v>
+        <v>0.005769950337707996</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.001299079973250628</v>
+        <v>0.01238404586911201</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001983002439374104</v>
+        <v>0.01379037089645863</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.000491759623400867</v>
+        <v>0.00426179775968194</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0001421712950104848</v>
+        <v>0.009523968212306499</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0006025897455401719</v>
+        <v>0.01103894971311092</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0002260280743939802</v>
+        <v>0.004219100810587406</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0002925010921899229</v>
+        <v>0.003241570666432381</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0004197469679638743</v>
+        <v>0.0007816608995199203</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0006131812115199864</v>
+        <v>0.0008427713182754815</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0008619154687039554</v>
+        <v>0.008908870629966259</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.0006292914040386677</v>
+        <v>0.007243645377457142</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0001734339311951771</v>
+        <v>0.002424194477498531</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0003598713374231011</v>
+        <v>0.004042447078973055</v>
       </c>
       <c r="FC8" t="n">
-        <v>2.767650585155934e-05</v>
+        <v>0.01094430685043335</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001028287661029026</v>
+        <v>0.0009364272700622678</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0002541010326240212</v>
+        <v>0.003971600905060768</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0001077090346370824</v>
+        <v>0.001671631587669253</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0006745246355421841</v>
+        <v>0.00034622463863343</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0003528753877617419</v>
+        <v>0.0009106225916184485</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0004259314737282693</v>
+        <v>0.01490545179694891</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0005494644865393639</v>
+        <v>0.002197072841227055</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.000159165429067798</v>
+        <v>0.003478629980236292</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.000270961580099538</v>
+        <v>0.004613383207470179</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0006140120094642043</v>
+        <v>0.006046129390597343</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.000923707673791796</v>
+        <v>0.007464773952960968</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0003350706829223782</v>
+        <v>0.003146441886201501</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0002841999521479011</v>
+        <v>0.009221919812262058</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.001574216526933014</v>
+        <v>0.01648552156984806</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0001522412349004298</v>
+        <v>0.01158611942082644</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0005586749175563455</v>
+        <v>0.00984322652220726</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0002819137589540333</v>
+        <v>0.004529838915914297</v>
       </c>
       <c r="FU8" t="n">
-        <v>1.557170617161319e-05</v>
+        <v>0.01018866337835789</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0001013525034068152</v>
+        <v>0.004812535364180803</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.000683732854668051</v>
+        <v>0.002651179907843471</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0002268367679789662</v>
+        <v>0.009207366034388542</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0007278534467332065</v>
+        <v>0.005168812349438667</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.00025286476011388</v>
+        <v>0.01312101632356644</v>
       </c>
       <c r="GA8" t="n">
-        <v>5.238539597485214e-05</v>
+        <v>0.003717937972396612</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0001798879820853472</v>
+        <v>0.007101589348167181</v>
       </c>
       <c r="GC8" t="n">
-        <v>2.760116149147507e-05</v>
+        <v>0.006219105795025826</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0004878226609434932</v>
+        <v>0.002413665410131216</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0003831210196949542</v>
+        <v>0.0113673098385334</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0006589347613044083</v>
+        <v>0.0007992021273821592</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0002177475835196674</v>
+        <v>0.005028850864619017</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0335371233522892</v>
+        <v>0.05010054260492325</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02063560113310814</v>
+        <v>0.1802141815423965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03637890517711639</v>
+        <v>0.0243929959833622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01288236025720835</v>
+        <v>0.06073007360100746</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0271169375628233</v>
+        <v>0.1149530485272408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008082736283540726</v>
+        <v>0.2585989832878113</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005778077989816666</v>
+        <v>0.01384912431240082</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00150286266580224</v>
+        <v>0.1173493936657906</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001076020300388336</v>
+        <v>0.01579966209828854</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03233440592885017</v>
+        <v>0.03471208363771439</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009764360263943672</v>
+        <v>0.1606845855712891</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03345541656017303</v>
+        <v>0.01300339121371508</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01232260838150978</v>
+        <v>0.0410824827849865</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01029245555400848</v>
+        <v>0.01526932884007692</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001352546620182693</v>
+        <v>0.1740654557943344</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0004245000891387463</v>
+        <v>0.00681735947728157</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.006099984981119633</v>
+        <v>0.1137329638004303</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005632156506180763</v>
+        <v>0.01019987836480141</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00227644294500351</v>
+        <v>0.003223574254661798</v>
       </c>
       <c r="T10" t="n">
-        <v>0.009167454205453396</v>
+        <v>0.01244623959064484</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003815376898273826</v>
+        <v>0.03447432443499565</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005221228115260601</v>
+        <v>0.04273094609379768</v>
       </c>
       <c r="W10" t="n">
-        <v>0.006629913579672575</v>
+        <v>0.05531677976250648</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001537639880552888</v>
+        <v>0.02046337723731995</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002396128140389919</v>
+        <v>0.0234161764383316</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.002081195125356317</v>
+        <v>0.01724779047071934</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004819511435925961</v>
+        <v>0.01196597330272198</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002361055696383119</v>
+        <v>0.005229794885963202</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.008850662969052792</v>
+        <v>0.01516942121088505</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005061327945441008</v>
+        <v>0.01836475916206837</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01024523470550776</v>
+        <v>0.009845980443060398</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.009652012027800083</v>
+        <v>0.02151064202189445</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002207902260124683</v>
+        <v>0.04262971132993698</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.006163108628243208</v>
+        <v>0.05289676785469055</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.006500401068478823</v>
+        <v>0.02340554445981979</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.008971207775175571</v>
+        <v>0.004707520827651024</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.007375870831310749</v>
+        <v>0.0002417159266769886</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.008003816939890385</v>
+        <v>0.02509762346744537</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.005763653200119734</v>
+        <v>0.01665387861430645</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.013715835288167</v>
+        <v>0.01739405654370785</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0009730395977385342</v>
+        <v>0.02359260991215706</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.005205055698752403</v>
+        <v>0.05188065022230148</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.993205609731376e-05</v>
+        <v>0.008051746524870396</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.008896833285689354</v>
+        <v>0.03541825711727142</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.000606374756898731</v>
+        <v>0.01051714271306992</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.01747255027294159</v>
+        <v>0.0354861319065094</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.008490240201354027</v>
+        <v>0.0714767798781395</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.01819711737334728</v>
+        <v>0.002062596380710602</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.002273597288876772</v>
+        <v>0.006039186846464872</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0002706754021346569</v>
+        <v>0.1025348082184792</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01150774769484997</v>
+        <v>0.173352912068367</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01566651836037636</v>
+        <v>0.02209295704960823</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.002354118973016739</v>
+        <v>0.04620678350329399</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.003384572453796864</v>
+        <v>0.02951007336378098</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.005482232663780451</v>
+        <v>0.002136267954483628</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.009821482002735138</v>
+        <v>0.05710870400071144</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.007584450766444206</v>
+        <v>0.0113301994279027</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01044856477528811</v>
+        <v>0.05353956669569016</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02241050079464912</v>
+        <v>0.05842079967260361</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.002539287554100156</v>
+        <v>0.02985000796616077</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01534462533891201</v>
+        <v>0.01166858244687319</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01343914121389389</v>
+        <v>0.007488276809453964</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001328108482994139</v>
+        <v>0.002180315554141998</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.00641009071841836</v>
+        <v>0.01463192049413919</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.00309265055693686</v>
+        <v>0.04185269773006439</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.005014928989112377</v>
+        <v>0.02744554542005062</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.002606090158224106</v>
+        <v>0.0003274241462349892</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.005530700087547302</v>
+        <v>0.01995084621012211</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004569652490317822</v>
+        <v>0.00207554129883647</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.006601161323487759</v>
+        <v>0.03080199658870697</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01532400399446487</v>
+        <v>0.0401662290096283</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0003844277816824615</v>
+        <v>0.02679943293333054</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.01721140928566456</v>
+        <v>0.02398391626775265</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0001563567202538252</v>
+        <v>0.05880873277783394</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01369929313659668</v>
+        <v>0.01243611052632332</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.01016518473625183</v>
+        <v>0.01191670820116997</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.006576255895197392</v>
+        <v>0.04381785914301872</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.005274496972560883</v>
+        <v>0.05791015177965164</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.00758044421672821</v>
+        <v>0.007305124774575233</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.003280606819316745</v>
+        <v>0.03677251189947128</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001201878301799297</v>
+        <v>0.01695580221712589</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.00795174203813076</v>
+        <v>0.0004844912327826023</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.006660773418843746</v>
+        <v>0.02394809387624264</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.004749937914311886</v>
+        <v>0.006454151123762131</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002951933071017265</v>
+        <v>0.01556295901536942</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.003460507141426206</v>
+        <v>0.01443103700876236</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.00369396130554378</v>
+        <v>0.04120505973696709</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.002175864297896624</v>
+        <v>0.002903812564909458</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0008276430889964104</v>
+        <v>0.01454339735209942</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0009146942757070065</v>
+        <v>0.005499542690813541</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.005907765589654446</v>
+        <v>0.010697141289711</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.009547810070216656</v>
+        <v>0.02448084950447083</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.001140609383583069</v>
+        <v>0.0009741820394992828</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.003044620389118791</v>
+        <v>0.0196709930896759</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.00979233905673027</v>
+        <v>0.07498577982187271</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.002474060049280524</v>
+        <v>0.02115566283464432</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.01047392562031746</v>
+        <v>0.02392587251961231</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.009384640492498875</v>
+        <v>0.02300279960036278</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.001169926486909389</v>
+        <v>0.03985200822353363</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.008235694840550423</v>
+        <v>0.00189406331628561</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.007432414684444666</v>
+        <v>0.01830931566655636</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.004754483699798584</v>
+        <v>0.007322821766138077</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.000619339756667614</v>
+        <v>0.01860015466809273</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.007933557964861393</v>
+        <v>0.02261624671518803</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.003656883956864476</v>
+        <v>0.05054856091737747</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.001559165073558688</v>
+        <v>0.002935250755399466</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.001695459941402078</v>
+        <v>0.02861518226563931</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.001805414329282939</v>
+        <v>0.008293286897242069</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.009542743675410748</v>
+        <v>0.01932800561189651</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.02259092964231968</v>
+        <v>0.09607860445976257</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.005548556800931692</v>
+        <v>0.006615751888602972</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01540525630116463</v>
+        <v>0.05261856690049171</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.005292669404298067</v>
+        <v>0.1199826672673225</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0002603924367576838</v>
+        <v>0.05551708489656448</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.004884783178567886</v>
+        <v>0.02908401563763618</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.005377755034714937</v>
+        <v>0.06651142984628677</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.004409105516970158</v>
+        <v>0.07002340257167816</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.005526324268430471</v>
+        <v>0.01487570814788342</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.005573859438300133</v>
+        <v>0.008005101233720779</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002149086911231279</v>
+        <v>0.01580097712576389</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.001403273898176849</v>
+        <v>0.03945307433605194</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.00349299912340939</v>
+        <v>0.0101240761578083</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003291488625109196</v>
+        <v>0.006219036877155304</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.006171233952045441</v>
+        <v>0.01408953778445721</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001156730926595628</v>
+        <v>0.04724057763814926</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002093832474201918</v>
+        <v>0.003213003743439913</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001109241042286158</v>
+        <v>0.007574032992124557</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0008250392274931073</v>
+        <v>0.01015944220125675</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.001695038750767708</v>
+        <v>0.01684890501201153</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.005299222655594349</v>
+        <v>0.005439765751361847</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01099342945963144</v>
+        <v>0.05859214439988136</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001567815197631717</v>
+        <v>0.02175805903971195</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001227827160619199</v>
+        <v>0.003870476270094514</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0113653177395463</v>
+        <v>0.02814658731222153</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0047639524564147</v>
+        <v>0.04296909272670746</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.009718362241983414</v>
+        <v>0.01832010969519615</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.002785959281027317</v>
+        <v>0.01204453688114882</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.007042528595775366</v>
+        <v>0.010656981728971</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.007062006741762161</v>
+        <v>0.004656897857785225</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.002784601645544171</v>
+        <v>0.03267782181501389</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.009372285567224026</v>
+        <v>0.04640111699700356</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.005826397333294153</v>
+        <v>0.00499300379306078</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.004788760095834732</v>
+        <v>0.01509466487914324</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0006685808766633272</v>
+        <v>0.006421090103685856</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.00311904726549983</v>
+        <v>0.002144591882824898</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.008530939929187298</v>
+        <v>0.003964442759752274</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.001948719844222069</v>
+        <v>0.01956070028245449</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.001662800321355462</v>
+        <v>0.00496297050267458</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.001030568266287446</v>
+        <v>0.0212294477969408</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.004693381953984499</v>
+        <v>0.03224465250968933</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.007343594450503588</v>
+        <v>0.004774044267833233</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.005323200486600399</v>
+        <v>0.05599146708846092</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.006656804587692022</v>
+        <v>0.009560756385326385</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.009289599023759365</v>
+        <v>0.0004389763344079256</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.004325793124735355</v>
+        <v>0.0184154212474823</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.00469093956053257</v>
+        <v>0.01551225502043962</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0003109533572569489</v>
+        <v>0.01663902401924133</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.00672324001789093</v>
+        <v>0.02142597362399101</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.003251086454838514</v>
+        <v>0.04697351530194283</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0006229096325114369</v>
+        <v>0.006302198860794306</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.003361607436090708</v>
+        <v>0.0332891158759594</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.003229697234928608</v>
+        <v>0.002216288819909096</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.01079052407294512</v>
+        <v>0.003483402542769909</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.00326215848326683</v>
+        <v>0.02752851508557796</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.009292364120483398</v>
+        <v>0.02851664647459984</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.008442889899015427</v>
+        <v>0.01143809966742992</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.004454565234482288</v>
+        <v>0.007216335274279118</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01181760802865028</v>
+        <v>0.02893687039613724</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.002521141665056348</v>
+        <v>0.004757300950586796</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.004341171588748693</v>
+        <v>0.01551714725792408</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0031466418877244</v>
+        <v>0.01840310171246529</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.001425333321094513</v>
+        <v>0.001000894466415048</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.02009186521172523</v>
+        <v>0.003495860379189253</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.005771355237811804</v>
+        <v>0.01624386385083199</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.03032023087143898</v>
+        <v>0.02142002992331982</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.005908632650971413</v>
+        <v>0.0829230472445488</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.005270175635814667</v>
+        <v>0.05432537198066711</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.005376845598220825</v>
+        <v>0.02182264439761639</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.006553471554070711</v>
+        <v>0.04141096025705338</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0007885649683885276</v>
+        <v>0.01215804740786552</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.001163141569122672</v>
+        <v>0.011559734120965</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.00949658639729023</v>
+        <v>0.0141269126906991</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.007871144451200962</v>
+        <v>0.01083369459956884</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.005310691893100739</v>
+        <v>0.006608592346310616</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.01315145194530487</v>
+        <v>0.1336806416511536</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.001496152952313423</v>
+        <v>0.02368594333529472</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.002441014628857374</v>
+        <v>0.02276832424104214</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.004217136651277542</v>
+        <v>0.03070877864956856</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0007155475323088467</v>
+        <v>0.0006729802116751671</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002221571980044246</v>
+        <v>4.085490218130872e-06</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0003985352232120931</v>
+        <v>0.0002776877954602242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04044254124164581</v>
+        <v>1.515382155048428e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005239860620349646</v>
+        <v>0.0001034436718327925</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003524853382259607</v>
+        <v>7.147723863454303e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01084844674915075</v>
+        <v>0.0002235991560155526</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001447289483621716</v>
+        <v>1.632443490962032e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007417159155011177</v>
+        <v>7.955566979944706e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02010507322847843</v>
+        <v>2.046740337391384e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003423783462494612</v>
+        <v>5.252435948932543e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005712326616048813</v>
+        <v>0.0002412796602584422</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03712452948093414</v>
+        <v>2.92172489935183e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00512862391769886</v>
+        <v>0.0001198082900373265</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005683323368430138</v>
+        <v>2.168288119719364e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01486792415380478</v>
+        <v>0.0002191946259699762</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001520343357697129</v>
+        <v>8.140523277688771e-08</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007452008314430714</v>
+        <v>3.460042353253812e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01922791078686714</v>
+        <v>1.384248753311113e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0002139435964636505</v>
+        <v>8.648057701066136e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>0.009183634072542191</v>
+        <v>2.276123632327653e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006658301572315395</v>
+        <v>1.976211024157237e-06</v>
       </c>
       <c r="V11" t="n">
-        <v>0.003366348566487432</v>
+        <v>3.180707426508889e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003225712338462472</v>
+        <v>3.181847569067031e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001861640252172947</v>
+        <v>7.747000381641556e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003592451335862279</v>
+        <v>1.442673874407774e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003637132002040744</v>
+        <v>2.594526449684054e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001164672896265984</v>
+        <v>9.122263691097032e-06</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001959243090823293</v>
+        <v>3.115023719146848e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0009363520657643676</v>
+        <v>3.272186586400494e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003063505748286843</v>
+        <v>1.477790101489518e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.005008003208786249</v>
+        <v>1.788835288607515e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002314649987965822</v>
+        <v>8.476009497826453e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.003820104757323861</v>
+        <v>2.934794611064717e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.557729259133339e-05</v>
+        <v>1.472834628657438e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.00161515292711556</v>
+        <v>2.242914888483938e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.006813390646129847</v>
+        <v>3.258632659708383e-06</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.002264548325911164</v>
+        <v>2.167282946174964e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.001225737622007728</v>
+        <v>3.04770001093857e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.009241728112101555</v>
+        <v>1.149681793322088e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001840274780988693</v>
+        <v>1.887982216430828e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001925079617649317</v>
+        <v>6.567691343661863e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0001445466477889568</v>
+        <v>5.232553667156026e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0002985259634442627</v>
+        <v>1.783834886737168e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001984782284125686</v>
+        <v>1.546286512166262e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.696988642332144e-05</v>
+        <v>2.814330218825489e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.002306003589183092</v>
+        <v>3.21669976983685e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0005180429434403777</v>
+        <v>0.000185023425729014</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0158269964158535</v>
+        <v>1.866495949798264e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.006386529188603163</v>
+        <v>2.225796561106108e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.002391904359683394</v>
+        <v>4.515144610195421e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.002224029041826725</v>
+        <v>0.000127878476632759</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0007919614436104894</v>
+        <v>6.49113098916132e-06</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0007015580777078867</v>
+        <v>3.917541835107841e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.008821473456919193</v>
+        <v>1.783062361937482e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.001003037788905203</v>
+        <v>1.110405719373375e-06</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.005693061742931604</v>
+        <v>6.839857815066352e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01060630567371845</v>
+        <v>6.33009331068024e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.003072746563702822</v>
+        <v>4.260240530129522e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.008731251582503319</v>
+        <v>8.256271394202486e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.005281677469611168</v>
+        <v>7.839866157155484e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.001558878226205707</v>
+        <v>9.577625860401895e-06</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.009123079478740692</v>
+        <v>3.617280162870884e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003094068029895425</v>
+        <v>1.388107193633914e-06</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0005570582579821348</v>
+        <v>9.075091838894878e-06</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.006346337962895632</v>
+        <v>4.369363887235522e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.004877189174294472</v>
+        <v>1.766161585692316e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0006962568731978536</v>
+        <v>3.292959445388988e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.00725212600082159</v>
+        <v>1.22600920349214e-06</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.002390030771493912</v>
+        <v>1.842116034822538e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.002266929484903812</v>
+        <v>1.771765892044641e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.003787415334954858</v>
+        <v>2.657666664163116e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.002841815818101168</v>
+        <v>6.961243798286887e-06</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.004062551073729992</v>
+        <v>1.765466186043341e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.004399952013045549</v>
+        <v>9.700164082460105e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0107974112033844</v>
+        <v>1.453321965527721e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0002827433636412024</v>
+        <v>1.034804881783202e-07</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.00550592178478837</v>
+        <v>1.205753414978972e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.005185468122363091</v>
+        <v>5.845402847626247e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.004119738936424255</v>
+        <v>1.107125626731431e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0007911199936643243</v>
+        <v>2.050270450126845e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.00788916926831007</v>
+        <v>1.939359935931861e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001015029265545309</v>
+        <v>3.470838919383823e-06</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0006026068003848195</v>
+        <v>4.64073964394629e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.00719861127436161</v>
+        <v>1.988536678254604e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.001218255609273911</v>
+        <v>2.056296943919733e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.002419383730739355</v>
+        <v>1.77230922417948e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.003184746718034148</v>
+        <v>3.173323784722015e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.000625360815320164</v>
+        <v>1.565319871588144e-05</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.002777149900794029</v>
+        <v>9.647140359447803e-06</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.003480172948911786</v>
+        <v>1.015099405776709e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0005201825406402349</v>
+        <v>4.905774039798416e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.002092444337904453</v>
+        <v>4.23308665631339e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.004517911933362484</v>
+        <v>8.385236469621304e-07</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.003230654867365956</v>
+        <v>3.608418046496809e-05</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.00449387775734067</v>
+        <v>1.42672297442914e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.002573715290054679</v>
+        <v>2.838270347638172e-06</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.001130385673604906</v>
+        <v>3.273115726187825e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.004399366676807404</v>
+        <v>4.940127473673783e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.002041098196059465</v>
+        <v>5.768636583525222e-06</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.001290265005081892</v>
+        <v>2.204374595748959e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.002140713855624199</v>
+        <v>3.758999810088426e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.006864894181489944</v>
+        <v>2.13891762541607e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>4.764161712955683e-05</v>
+        <v>2.928117828560062e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0007311926456168294</v>
+        <v>1.693725243967492e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.00321634579449892</v>
+        <v>3.741901309695095e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.286181213799864e-05</v>
+        <v>1.258580869034631e-05</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.003084131982177496</v>
+        <v>1.776465069269761e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.002217595931142569</v>
+        <v>6.769354058633326e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.003424948314204812</v>
+        <v>8.269173122243956e-06</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001326787867583334</v>
+        <v>3.701879541040398e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.005688543431460857</v>
+        <v>2.236786895082332e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.008205337449908257</v>
+        <v>6.038450374035165e-05</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.003148154821246862</v>
+        <v>4.950396487402031e-06</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.008832095190882683</v>
+        <v>5.05169100506464e-06</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.003822931786999106</v>
+        <v>2.947996836155653e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0002300725318491459</v>
+        <v>3.27597044815775e-05</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.001434586592949927</v>
+        <v>3.58598554157652e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.001684365561231971</v>
+        <v>5.86275382374879e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.003524867352098227</v>
+        <v>7.272496077348478e-06</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0003549771790858358</v>
+        <v>1.380273261020193e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.001476754667237401</v>
+        <v>3.055956767639145e-07</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.003310892498120666</v>
+        <v>1.813694143493194e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0007490308489650488</v>
+        <v>1.049250658979872e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.001051982631906867</v>
+        <v>1.230073121405439e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.005445826798677444</v>
+        <v>1.289071224164218e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>2.948101609945297e-06</v>
+        <v>2.308279908902477e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.003588220570236444</v>
+        <v>1.462259388063103e-05</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.005805496126413345</v>
+        <v>2.534199120418634e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.001616547699086368</v>
+        <v>1.528843131382018e-05</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0008194337133318186</v>
+        <v>9.992900231736712e-06</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0002080033300444484</v>
+        <v>1.460281282561482e-06</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.003047579200938344</v>
+        <v>6.004210717946989e-06</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0008034175261855125</v>
+        <v>3.690406174428063e-06</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.006782588083297014</v>
+        <v>1.098046959668864e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.003714664373546839</v>
+        <v>1.092091588361654e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.001950469450093806</v>
+        <v>4.727040504803881e-06</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.005638590082526207</v>
+        <v>3.444521644269116e-05</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.007180415093898773</v>
+        <v>1.854832044045907e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.002297008410096169</v>
+        <v>3.126998763036681e-06</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.004386880435049534</v>
+        <v>6.916718120919541e-06</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.003520014230161905</v>
+        <v>2.59461157838814e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.001373356906697154</v>
+        <v>2.274397229484748e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.001551198423840106</v>
+        <v>1.532803025838803e-06</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.222401624545455e-05</v>
+        <v>8.90470346348593e-08</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.002576554659754038</v>
+        <v>9.511758435110096e-06</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0009224012028425932</v>
+        <v>2.437999319226947e-05</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.001298907096497715</v>
+        <v>1.737396814860404e-05</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.004251393489539623</v>
+        <v>2.598113860585727e-05</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0001859194599092007</v>
+        <v>1.788621739251539e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.002722277538850904</v>
+        <v>1.208157391374698e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.001183228217996657</v>
+        <v>9.263707397622056e-06</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0004574615741148591</v>
+        <v>3.891275628120638e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.006641709711402655</v>
+        <v>7.209373052319279e-06</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0003707068972289562</v>
+        <v>5.010367658542236e-06</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.003330219769850373</v>
+        <v>3.589814514270984e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.006834940984845161</v>
+        <v>1.131070894189179e-05</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0005298416945151985</v>
+        <v>2.176365524064749e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0002167564816772938</v>
+        <v>1.515979693067493e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.001207043416798115</v>
+        <v>3.32421222992707e-05</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0005049175233580172</v>
+        <v>1.79680973815266e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001615957007743418</v>
+        <v>7.834201824152842e-06</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.00381734874099493</v>
+        <v>1.587172846484464e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.004454227164387703</v>
+        <v>1.346184853900922e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.001379508059471846</v>
+        <v>8.101430466922466e-06</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01052583567798138</v>
+        <v>9.526492249278817e-06</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.004168688785284758</v>
+        <v>5.441217945190147e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.002833368722349405</v>
+        <v>9.365734513266943e-06</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.005484322551637888</v>
+        <v>3.253395698266104e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.001414050813764334</v>
+        <v>2.479418981238268e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.008597860112786293</v>
+        <v>1.737143247737549e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.002074572956189513</v>
+        <v>8.702660124981776e-06</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.007073065266013145</v>
+        <v>1.03655793282087e-06</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.001169498194940388</v>
+        <v>5.785340545116924e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.00724445516243577</v>
+        <v>1.731737575028092e-05</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0004946480039507151</v>
+        <v>5.157475243322551e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.007241933606564999</v>
+        <v>2.304580084455665e-05</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.004695990588515997</v>
+        <v>3.713229307322763e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.00257986830547452</v>
+        <v>9.288962246500887e-06</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.003593761473894119</v>
+        <v>4.605115918820957e-06</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.007299053948372602</v>
+        <v>1.28500432765577e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0001303665339946747</v>
+        <v>4.934909520670772e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001043033204041421</v>
+        <v>5.451547622215003e-06</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.006108126603066921</v>
+        <v>1.452314336347627e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.008175970055162907</v>
+        <v>1.790244709809485e-06</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.006504771765321493</v>
+        <v>2.868660521926358e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.001766868401318789</v>
+        <v>3.52717652276624e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.003364186966791749</v>
+        <v>9.680589573690668e-05</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.004867160692811012</v>
+        <v>2.140519427484833e-06</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.009053687565028667</v>
+        <v>2.172952918044757e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.009672258980572224</v>
+        <v>8.851793245412409e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001096281222999096</v>
+        <v>0.002023112261667848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005547857843339443</v>
+        <v>0.000124317390145734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002610892988741398</v>
+        <v>0.001058741938322783</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00187932956032455</v>
+        <v>0.001237376360222697</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006649355636909604</v>
+        <v>0.000787760189268738</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001531000947579741</v>
+        <v>0.0003025557089131325</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002915068995207548</v>
+        <v>2.441815013298765e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003153972094878554</v>
+        <v>0.0002158983843401074</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008651318959891796</v>
+        <v>3.058527363464236e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001021378906443715</v>
+        <v>0.001691185287199914</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005628855898976326</v>
+        <v>0.0001633921201573685</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001751639530993998</v>
+        <v>0.0002328296832274646</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0009491624077782035</v>
+        <v>0.0008064024732448161</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001010291511192918</v>
+        <v>0.0004626454028766602</v>
       </c>
       <c r="P12" t="n">
-        <v>0.002735256217420101</v>
+        <v>0.0005704559735022485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002745585283264518</v>
+        <v>0.0003637755871750414</v>
       </c>
       <c r="R12" t="n">
-        <v>0.004301083739846945</v>
+        <v>7.176625513238832e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0003270600573159754</v>
+        <v>5.113893712405115e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001769826747477055</v>
+        <v>0.0001054455060511827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0001032797008519992</v>
+        <v>1.697782863629982e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.509310823166743e-05</v>
+        <v>0.0003336518711876124</v>
       </c>
       <c r="W12" t="n">
-        <v>0.001630141283385456</v>
+        <v>5.953882009634981e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0005747333052568138</v>
+        <v>0.0001595807116245851</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.000229023426072672</v>
+        <v>0.0002458253584336489</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001293072360567749</v>
+        <v>0.000106243351183366</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.889956759754568e-05</v>
+        <v>0.0002913595526479185</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001783279294613749</v>
+        <v>5.396018968895078e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0004427084932103753</v>
+        <v>2.081680941046216e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0005783387459814548</v>
+        <v>0.0002383929386269301</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.001105819479562342</v>
+        <v>0.0004465369565878063</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.000348475412465632</v>
+        <v>0.0002372492017457262</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.518169200513512e-05</v>
+        <v>0.0002042418200289831</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001123192487284541</v>
+        <v>1.694441016297787e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001474668039008975</v>
+        <v>0.0003505935601424426</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.001039183349348605</v>
+        <v>0.0002171149535570294</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.001972386846318841</v>
+        <v>0.0001004216464934871</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002484643831849098</v>
+        <v>0.0003426907060202211</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0007959801587276161</v>
+        <v>0.0001094039471354336</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001576125854626298</v>
+        <v>4.854981307289563e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001329695922322571</v>
+        <v>1.665994750510436e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0006188901606947184</v>
+        <v>0.000244864058913663</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.692318907473236e-05</v>
+        <v>6.389144255081192e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0004259107518009841</v>
+        <v>0.0001984361006179824</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.000494470470584929</v>
+        <v>0.0001807198277674615</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.00456984993070364</v>
+        <v>0.0002818388747982681</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.002160663716495037</v>
+        <v>0.00105719524435699</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.004140262492001057</v>
+        <v>8.209384759538807e-06</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0002068311150651425</v>
+        <v>0.0009880943689495325</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0003577926836442202</v>
+        <v>0.0008341582724824548</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0009226592956110835</v>
+        <v>0.0004823039344046265</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.001475745695643127</v>
+        <v>0.0003755313227884471</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.003614137880504131</v>
+        <v>0.0001675768144195899</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0005129455239512026</v>
+        <v>0.0003868514904752374</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.002066694432869554</v>
+        <v>0.0002073123323498294</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0006447973428294063</v>
+        <v>0.0002962073776870966</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.001190709765069187</v>
+        <v>0.0002674198476597667</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0003504257474560291</v>
+        <v>8.426637214142829e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.001024230616167188</v>
+        <v>0.0006820362177677453</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0009380450937896967</v>
+        <v>0.0002710165863391012</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001237916760146618</v>
+        <v>6.198891060194001e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.002626640256494284</v>
+        <v>0.0004262124130036682</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001384873990900815</v>
+        <v>0.0001950269361259416</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.001055570668540895</v>
+        <v>8.25935130706057e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0003475963894743472</v>
+        <v>0.0001793535775505006</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.001115849008783698</v>
+        <v>0.0001585024583619088</v>
       </c>
       <c r="BO12" t="n">
-        <v>4.886023816652596e-05</v>
+        <v>4.556044586934149e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.001995440339669585</v>
+        <v>0.0004958437057211995</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.001190515235066414</v>
+        <v>0.0001348278892692178</v>
       </c>
       <c r="BR12" t="n">
-        <v>6.378747639246285e-05</v>
+        <v>2.606377165648155e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.001033194595947862</v>
+        <v>0.000321641331538558</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0001959575165528804</v>
+        <v>3.907117206836119e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.003784181782975793</v>
+        <v>0.0002604606270324439</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0009091610554605722</v>
+        <v>0.0007387830410152674</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.001696134451776743</v>
+        <v>4.088938294444233e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.001105839502997696</v>
+        <v>0.0003662765375338495</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.001676706597208977</v>
+        <v>0.0003828006447292864</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0009055460686795413</v>
+        <v>8.905321010388434e-05</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001359993912046775</v>
+        <v>0.0002087751345243305</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.002457034541293979</v>
+        <v>5.773087104898877e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.000416876602685079</v>
+        <v>0.0002664797066245228</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.002012791112065315</v>
+        <v>5.22645132150501e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0014954594662413</v>
+        <v>0.0002027602458838373</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.001080392044968903</v>
+        <v>9.659856732469052e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0005977909895591438</v>
+        <v>0.0002217259025201201</v>
       </c>
       <c r="CH12" t="n">
-        <v>6.182119250297546e-06</v>
+        <v>6.096911238273606e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0002810866571962833</v>
+        <v>0.0001331845851382241</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0003262370591983199</v>
+        <v>4.460851414478384e-06</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.0003668669378384948</v>
+        <v>6.999754987191409e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0002827336720656604</v>
+        <v>0.0002129139029420912</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0009253175812773407</v>
+        <v>1.862874887592625e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.000301901891361922</v>
+        <v>0.0002915039949584752</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0008205347694456577</v>
+        <v>8.43620509840548e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0007598447264172137</v>
+        <v>0.0004821795737370849</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.002288791351020336</v>
+        <v>8.215494744945318e-05</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0001636050728848204</v>
+        <v>0.0004221690469421446</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.00109120097476989</v>
+        <v>0.000552272074855864</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.001748815760947764</v>
+        <v>0.0002619011502247304</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.0009068134822882712</v>
+        <v>9.573502757120878e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.001989957178011537</v>
+        <v>1.937299202836584e-06</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.001233188202604651</v>
+        <v>0.0002473648055456579</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.001216862117871642</v>
+        <v>0.0001302573800785467</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0003532815026119351</v>
+        <v>0.0003052015963476151</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001130748307332397</v>
+        <v>0.0001092843231162988</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0003571857523638755</v>
+        <v>0.0002201816969318315</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0001701182045508176</v>
+        <v>7.026336970739067e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.502275260165334e-05</v>
+        <v>0.0001011342246783897</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0001432220597052947</v>
+        <v>0.0001818935415940359</v>
       </c>
       <c r="DE12" t="n">
-        <v>4.156817885814235e-05</v>
+        <v>9.282289101975039e-05</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.003751945681869984</v>
+        <v>0.0003774634678848088</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.001218712888658047</v>
+        <v>0.0002200860617449507</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0007675922242924571</v>
+        <v>0.001354398322291672</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001318317372351885</v>
+        <v>0.0009718362125568092</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.001385542214848101</v>
+        <v>6.743392441421747e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0008380402578040957</v>
+        <v>0.0004874771402683109</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.000344005529768765</v>
+        <v>0.000699876865837723</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.416993422433734e-06</v>
+        <v>0.0001042717485688627</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0001174533681478351</v>
+        <v>0.0002380973019171506</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.002051119226962328</v>
+        <v>0.0001891873398562893</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0001689213822828606</v>
+        <v>0.0005023335688747466</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.0001025967067107558</v>
+        <v>0.000119866817840375</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.000478478817967698</v>
+        <v>0.0001027449470711872</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.001352777821011841</v>
+        <v>0.0001538310170872137</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0007237929385155439</v>
+        <v>0.0001135014172177762</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0004911761498078704</v>
+        <v>0.0001510572910774499</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0006025680340826511</v>
+        <v>0.0002577322593424469</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0005189173389226198</v>
+        <v>0.0001152884433395229</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0003300951793789864</v>
+        <v>3.483884211163968e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0002101156424032524</v>
+        <v>0.0003949866513721645</v>
       </c>
       <c r="DZ12" t="n">
-        <v>5.867093568667769e-05</v>
+        <v>0.0002315038291271776</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.001727086957544088</v>
+        <v>1.697270636213943e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0006736047216691077</v>
+        <v>0.0001586223079357296</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0002208721707575023</v>
+        <v>7.775693666189909e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0007412421982735395</v>
+        <v>0.0002323570370208472</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0003661041846498847</v>
+        <v>0.0001479299244238064</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.002666262909770012</v>
+        <v>0.0002036591904470697</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.001522804726846516</v>
+        <v>0.0001427118550054729</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0008014361374080181</v>
+        <v>0.0002239669993286952</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0005342873046174645</v>
+        <v>2.733160727075301e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.00051497871754691</v>
+        <v>0.0003277658834122121</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.00112453056499362</v>
+        <v>0.0002619909646455199</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0006549526005983353</v>
+        <v>3.373934305272996e-07</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001278403215110302</v>
+        <v>1.08624626591336e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0005180659936740994</v>
+        <v>6.990891415625811e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0006946053472347558</v>
+        <v>3.415310857235454e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0007999530644156039</v>
+        <v>8.72476175572956e-06</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0008150668581947684</v>
+        <v>0.0001201421182486229</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.001160957152023911</v>
+        <v>0.0001520471560070291</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0002588987699709833</v>
+        <v>7.760183507343754e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0009527928777970374</v>
+        <v>0.0003563420032151043</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.001260147313587368</v>
+        <v>0.0001574520574649796</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0009672659216448665</v>
+        <v>0.0002205854980275035</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0007349534425884485</v>
+        <v>9.468345524510369e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.002000462496653199</v>
+        <v>2.066695014946163e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.001091458485461771</v>
+        <v>0.0002259644534206018</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.00127710634842515</v>
+        <v>4.820678077521734e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0003535381401889026</v>
+        <v>0.0002542333968449384</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0006235387991182506</v>
+        <v>3.820436177193187e-06</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0001374101411784068</v>
+        <v>0.0001386741059832275</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0002308071561856195</v>
+        <v>5.265138679533266e-05</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0003255577175877988</v>
+        <v>6.502724863821641e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0002260142064187676</v>
+        <v>0.0002320414932910353</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.001560177421197295</v>
+        <v>6.998135359026492e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0003581186174415052</v>
+        <v>0.0003029096114914864</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.001152116805315018</v>
+        <v>3.507511792122386e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.001946738921105862</v>
+        <v>0.0003342957061249763</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0009319143136963248</v>
+        <v>0.0002094650990329683</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0008677812875248492</v>
+        <v>3.555732837412506e-05</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0004008885880466551</v>
+        <v>6.992333510424942e-06</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0006277624634094536</v>
+        <v>0.0002659710880834609</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.000187574332812801</v>
+        <v>7.803125481586903e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0001570960739627481</v>
+        <v>5.362738738767803e-05</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.00376584124751389</v>
+        <v>0.0004159285745117813</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0006210586288943887</v>
+        <v>4.759881994687021e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.001254121772944927</v>
+        <v>0.0005400276859290898</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0006700870580971241</v>
+        <v>0.0004385832289699465</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0003610329877119511</v>
+        <v>0.0001441230706404895</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.000533775775693357</v>
+        <v>0.0001180316030513495</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.001216192147694528</v>
+        <v>4.857670865021646e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0002249014069093391</v>
+        <v>2.49797958531417e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.000710740452632308</v>
+        <v>0.000100615419796668</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0006836965912953019</v>
+        <v>1.539440745546017e-06</v>
       </c>
       <c r="GA12" t="n">
-        <v>4.742087912745774e-05</v>
+        <v>0.0001011327403830364</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002263017231598496</v>
+        <v>0.0004033126460853964</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.0005424936534836888</v>
+        <v>0.0004721357836388052</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001111828722059727</v>
+        <v>5.487503585754894e-05</v>
       </c>
       <c r="GE12" t="n">
-        <v>3.749219467863441e-05</v>
+        <v>0.0006084403139539063</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0004361167666502297</v>
+        <v>9.944164048647508e-05</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.04967039078474e-05</v>
+        <v>1.680705827311613e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009744030423462391</v>
+        <v>0.02308423258364201</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002893272321671247</v>
+        <v>0.2700941860675812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009537220001220703</v>
+        <v>0.0121845779940486</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001829907880164683</v>
+        <v>0.1400018483400345</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003186261979863048</v>
+        <v>0.03652042523026466</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001974769635125995</v>
+        <v>0.2636938095092773</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001484182896092534</v>
+        <v>0.004772966727614403</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001710375072434545</v>
+        <v>0.09588789939880371</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002241447800770402</v>
+        <v>0.03361897543072701</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00935041718184948</v>
+        <v>0.05820509791374207</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001754931407049298</v>
+        <v>0.2540064752101898</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01109515409916639</v>
+        <v>0.00303701451048255</v>
       </c>
       <c r="M13" t="n">
-        <v>4.173598426859826e-05</v>
+        <v>0.1028423234820366</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001014347653836012</v>
+        <v>0.001460518687963486</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002600353211164474</v>
+        <v>0.2426442503929138</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002642733277752995</v>
+        <v>0.01864532195031643</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0006998344324529171</v>
+        <v>0.04840560629963875</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003135195001959801</v>
+        <v>0.009806429035961628</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0001982151006814092</v>
+        <v>0.01251366175711155</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001247429172508419</v>
+        <v>0.01337157469242811</v>
       </c>
       <c r="U13" t="n">
-        <v>0.000761254399549216</v>
+        <v>0.02460465952754021</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0003047161735594273</v>
+        <v>0.04296129196882248</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0006259296787902713</v>
+        <v>0.07205949723720551</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001239390694536269</v>
+        <v>0.01753161661326885</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.000704474572557956</v>
+        <v>0.02438260987401009</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001501435646787286</v>
+        <v>0.06725317239761353</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0003938948211725801</v>
+        <v>0.04252458363771439</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.562691411701962e-05</v>
+        <v>0.005329102277755737</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0005717702442780137</v>
+        <v>0.01731729507446289</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0004535216721706092</v>
+        <v>0.01848237402737141</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001321676187217236</v>
+        <v>0.01523731276392937</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.910911856219172e-05</v>
+        <v>0.02967013418674469</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0008965564193204045</v>
+        <v>0.02477460727095604</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0005727309617213905</v>
+        <v>0.01395186129957438</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.002383389510214329</v>
+        <v>0.006000030785799026</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001391110825352371</v>
+        <v>0.02479415200650692</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.002236151834949851</v>
+        <v>0.02446242980659008</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001023092772811651</v>
+        <v>0.04352667927742004</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.001124691683799028</v>
+        <v>0.001667232252657413</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001594718778505921</v>
+        <v>0.006943641230463982</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.306075662607327e-05</v>
+        <v>0.001152393873780966</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.000755244109313935</v>
+        <v>0.03269098326563835</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.000168437763932161</v>
+        <v>0.002945689484477043</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001083322567865252</v>
+        <v>0.0170839000493288</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0003134885628242046</v>
+        <v>0.02470722794532776</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.004438608884811401</v>
+        <v>0.02915184944868088</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0004817590233869851</v>
+        <v>0.1975713521242142</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.004811306484043598</v>
+        <v>0.001950948499143124</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0016358548309654</v>
+        <v>0.05770295858383179</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.00102381594479084</v>
+        <v>0.02765282057225704</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001532526104710996</v>
+        <v>0.1364703774452209</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0008756443276070058</v>
+        <v>0.01165301818400621</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0003905824560206383</v>
+        <v>0.02164324559271336</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0003002805169671774</v>
+        <v>0.0653376579284668</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.001562722609378397</v>
+        <v>0.02452132478356361</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0004825677024200559</v>
+        <v>0.0472516342997551</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.002666384913027287</v>
+        <v>0.06001319363713264</v>
       </c>
       <c r="BF13" t="n">
-        <v>7.288201595656574e-05</v>
+        <v>0.009381678886711597</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003068263176828623</v>
+        <v>0.05216707661747932</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001443460583686829</v>
+        <v>0.08037464320659637</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001749750808812678</v>
+        <v>0.01857436820864677</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001098371925763786</v>
+        <v>0.01689907163381577</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.000524162664078176</v>
+        <v>0.001865943893790245</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0005308684194460511</v>
+        <v>0.001097093801945448</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001255891867913306</v>
+        <v>0.07127029448747635</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001536308322101831</v>
+        <v>0.01000308804214001</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0007341859745793045</v>
+        <v>0.02312815375626087</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.00243314215913415</v>
+        <v>0.006425327155739069</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001026898389682174</v>
+        <v>0.00216773385182023</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.000857060425914824</v>
+        <v>0.01239768415689468</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.001360847498290241</v>
+        <v>0.00272298650816083</v>
       </c>
       <c r="BT13" t="n">
-        <v>6.385410961229354e-05</v>
+        <v>0.004344434011727571</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.00409735320135951</v>
+        <v>0.01975430175662041</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0002469976898282766</v>
+        <v>0.1018017828464508</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001968869706615806</v>
+        <v>0.0128833893686533</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0004917642800137401</v>
+        <v>0.05302686616778374</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001655431580729783</v>
+        <v>0.02663053944706917</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0008180622244253755</v>
+        <v>0.05129071325063705</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0008705634973011911</v>
+        <v>0.01684296317398548</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0004640732950065285</v>
+        <v>0.0006298068910837173</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001355645013973117</v>
+        <v>0.04623309522867203</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.002089559799060225</v>
+        <v>0.004180599004030228</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002311294199898839</v>
+        <v>0.03300882875919342</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001932861632667482</v>
+        <v>0.0277280043810606</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002108961489284411</v>
+        <v>0.02199049666523933</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0001637347450014204</v>
+        <v>0.003947626799345016</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0008716160082258284</v>
+        <v>0.04461454972624779</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001757477002684027</v>
+        <v>0.01749347895383835</v>
       </c>
       <c r="CK13" t="n">
-        <v>5.508391768671572e-05</v>
+        <v>0.01310320012271404</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0002117220428772271</v>
+        <v>0.02309484034776688</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0008017897489480674</v>
+        <v>0.05126170441508293</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0001515451294835657</v>
+        <v>0.005598020739853382</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0002184681943617761</v>
+        <v>0.006117299664765596</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.001286249957047403</v>
+        <v>0.01507003419101238</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002243936527520418</v>
+        <v>0.01949442736804485</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0003884871839545667</v>
+        <v>0.003078053239732981</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.000610578921623528</v>
+        <v>0.05300744995474815</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0001007026294246316</v>
+        <v>0.05403919517993927</v>
       </c>
       <c r="CU13" t="n">
-        <v>3.876106347888708e-06</v>
+        <v>0.005935311317443848</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.001871610525995493</v>
+        <v>0.002167431637644768</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.00206369417719543</v>
+        <v>0.02796841599047184</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.002210072707384825</v>
+        <v>0.02205833047628403</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.000406205072067678</v>
+        <v>0.03464195877313614</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001267791260033846</v>
+        <v>0.005702638067305088</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.001151668140664697</v>
+        <v>0.04850707203149796</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0002276001468999311</v>
+        <v>0.01737946271896362</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0002900878607761115</v>
+        <v>0.02640135586261749</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001479299389757216</v>
+        <v>0.008576655760407448</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0009525887435302138</v>
+        <v>0.005576861556619406</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.005426791496574879</v>
+        <v>0.009329527616500854</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.001747578382492065</v>
+        <v>0.008913579396903515</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0005086004384793341</v>
+        <v>0.1084200292825699</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001432004617527127</v>
+        <v>0.03606671094894409</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.001073377672582865</v>
+        <v>0.002494313754141331</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001071204547770321</v>
+        <v>0.005248419940471649</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0003101492184214294</v>
+        <v>0.03802705556154251</v>
       </c>
       <c r="DM13" t="n">
-        <v>3.538702731020749e-05</v>
+        <v>0.01558523345738649</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.000385987339541316</v>
+        <v>0.005589612759649754</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.002660287776961923</v>
+        <v>0.007432531099766493</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0005925270961597562</v>
+        <v>0.01535838469862938</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0001227255561389029</v>
+        <v>0.002569898962974548</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0005706941592507064</v>
+        <v>0.01032143458724022</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0005425828276202083</v>
+        <v>0.004753006622195244</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.04832322197035e-05</v>
+        <v>0.02424870431423187</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0005382741801440716</v>
+        <v>0.0107392119243741</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0005150785436853766</v>
+        <v>0.03175603970885277</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001282268087379634</v>
+        <v>0.002269883640110493</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001181355444714427</v>
+        <v>0.02471088618040085</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0005422401009127498</v>
+        <v>0.02203634567558765</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.00115062587428838</v>
+        <v>0.002790269441902637</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0008774572052061558</v>
+        <v>0.0009887428022921085</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.000110298627987504</v>
+        <v>0.01825403608381748</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0006436947151087224</v>
+        <v>0.002931427676230669</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0008070894400589168</v>
+        <v>0.01158789545297623</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0001821147161535919</v>
+        <v>0.0023620689753443</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.003054928965866566</v>
+        <v>0.01429750118404627</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001449419185519218</v>
+        <v>0.03707843646407127</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002239003777503967</v>
+        <v>0.01671922020614147</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0004178135714028031</v>
+        <v>0.007259863428771496</v>
       </c>
       <c r="EJ13" t="n">
-        <v>7.292022928595543e-05</v>
+        <v>0.002123698126524687</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.002664394909515977</v>
+        <v>0.04727816581726074</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0001655923842918128</v>
+        <v>0.01379426103085279</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.001526571810245514</v>
+        <v>0.006734445225447416</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001051732921041548</v>
+        <v>0.01293251849710941</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001129296375438571</v>
+        <v>0.005293264053761959</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001548091066069901</v>
+        <v>0.01254746876657009</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0003367187455296516</v>
+        <v>0.01478577218949795</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.000165488658240065</v>
+        <v>0.0212175901979208</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.001182900741696358</v>
+        <v>0.009346412494778633</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0008050753967836499</v>
+        <v>0.04084492847323418</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0001565024722367525</v>
+        <v>0.031680628657341</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0005791392177343369</v>
+        <v>0.07610173523426056</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0005583714228123426</v>
+        <v>0.01037327572703362</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.001987364375963807</v>
+        <v>0.002322782995179296</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.001864824327640235</v>
+        <v>0.02568789012730122</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001994295977056026</v>
+        <v>0.01824776083230972</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0002288181422045454</v>
+        <v>0.03007044643163681</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0009384755976498127</v>
+        <v>0.001091984333470464</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0004100301885046065</v>
+        <v>0.0403733029961586</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001826224033720791</v>
+        <v>0.02913432754576206</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0002613436663523316</v>
+        <v>0.01410173624753952</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004902812652289867</v>
+        <v>0.02204821072518826</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0008052625926211476</v>
+        <v>0.01217825710773468</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0007798814913257957</v>
+        <v>0.0006711384048685431</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.002601751126348972</v>
+        <v>0.009708542376756668</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001656744396314025</v>
+        <v>0.04318524897098541</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0002488718600943685</v>
+        <v>0.01101253926753998</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001170823583379388</v>
+        <v>0.02679337002336979</v>
       </c>
       <c r="FM13" t="n">
-        <v>3.166219539707527e-05</v>
+        <v>0.008857926353812218</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0007985442643985152</v>
+        <v>0.02129599824547768</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0002298077597515658</v>
+        <v>0.01910114102065563</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001475192373618484</v>
+        <v>0.01442377828061581</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.004744387231767178</v>
+        <v>0.05279998481273651</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001098695094697177</v>
+        <v>0.03885854780673981</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0007549251895397902</v>
+        <v>0.02426140382885933</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0007335201371461153</v>
+        <v>0.01370736956596375</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001328346668742597</v>
+        <v>0.008922290056943893</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0003631991276051849</v>
+        <v>0.02142512053251266</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0005352834705263376</v>
+        <v>0.003675260348245502</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0003690080193337053</v>
+        <v>0.01859917491674423</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.00130226428154856</v>
+        <v>0.04650051146745682</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001216456294059753</v>
+        <v>0.01996774598956108</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001131706987507641</v>
+        <v>0.03209981322288513</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0004599715175572783</v>
+        <v>0.01183719653636217</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.00188263482414186</v>
+        <v>0.02790356427431107</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.000108276610262692</v>
+        <v>0.01698098331689835</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0006873371894471347</v>
+        <v>0.1272857487201691</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.000171040344866924</v>
+        <v>0.001055099070072174</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0009929733350872993</v>
+        <v>0.005722253583371639</v>
       </c>
     </row>
     <row r="14">
@@ -8970,1140 +8970,1140 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001855727459769696</v>
+        <v>0.0001625073055038229</v>
       </c>
       <c r="B16" t="n">
-        <v>1.178873208118603e-05</v>
+        <v>0.003670740406960249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000215908934478648</v>
+        <v>6.533721898449585e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.290899571264163e-05</v>
+        <v>0.0009331564069725573</v>
       </c>
       <c r="E16" t="n">
-        <v>9.664431127021089e-05</v>
+        <v>0.001097588567063212</v>
       </c>
       <c r="F16" t="n">
-        <v>5.140273060533218e-06</v>
+        <v>0.001307672588154674</v>
       </c>
       <c r="G16" t="n">
-        <v>6.318947998806834e-05</v>
+        <v>0.0004255551612004638</v>
       </c>
       <c r="H16" t="n">
-        <v>3.937262226827443e-05</v>
+        <v>0.0005912304040975869</v>
       </c>
       <c r="I16" t="n">
-        <v>6.758801464457065e-05</v>
+        <v>0.00065939238993451</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001733007811708376</v>
+        <v>0.0002234159910585731</v>
       </c>
       <c r="K16" t="n">
-        <v>1.996977698581759e-05</v>
+        <v>0.003435318591073155</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002309311530552804</v>
+        <v>7.02252727933228e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>2.66575825662585e-05</v>
+        <v>0.0004990622983314097</v>
       </c>
       <c r="N16" t="n">
-        <v>1.912370316858869e-05</v>
+        <v>0.0002625968481879681</v>
       </c>
       <c r="O16" t="n">
-        <v>9.81388075160794e-06</v>
+        <v>0.001154388766735792</v>
       </c>
       <c r="P16" t="n">
-        <v>5.140127541380934e-05</v>
+        <v>0.0002413186739431694</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.549759175162762e-05</v>
+        <v>0.0001780540042091161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.069569594226778e-05</v>
+        <v>0.000681525852996856</v>
       </c>
       <c r="S16" t="n">
-        <v>2.052045147138415e-06</v>
+        <v>0.000188314777915366</v>
       </c>
       <c r="T16" t="n">
-        <v>5.602537567028776e-05</v>
+        <v>0.00041594059439376</v>
       </c>
       <c r="U16" t="n">
-        <v>9.449080607737415e-06</v>
+        <v>2.658635457919445e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>2.010480966418982e-05</v>
+        <v>0.0002292959106853232</v>
       </c>
       <c r="W16" t="n">
-        <v>6.564650448126486e-06</v>
+        <v>0.0003594657173380256</v>
       </c>
       <c r="X16" t="n">
-        <v>3.927858870156342e-06</v>
+        <v>0.0001808006782084703</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.614064967725426e-05</v>
+        <v>6.908408249728382e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.295454345992766e-05</v>
+        <v>0.000536738836672157</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.388113201363012e-06</v>
+        <v>0.0002643791376613081</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.728182365302928e-06</v>
+        <v>0.0002589089854154736</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.497870344901457e-06</v>
+        <v>0.0001823353377403691</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.954506377747748e-06</v>
+        <v>0.0001477868936490268</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.929515514755622e-05</v>
+        <v>0.0001958820794243366</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.434924110479187e-06</v>
+        <v>3.366581950103864e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.277198680327274e-05</v>
+        <v>6.626610411331058e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.288127168663777e-05</v>
+        <v>7.015810115262866e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.886477785883471e-05</v>
+        <v>2.627723733894527e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.917534144828096e-05</v>
+        <v>0.000165001314599067</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.130990782869048e-05</v>
+        <v>0.0005129930796101689</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.443975533125922e-05</v>
+        <v>0.0004245954041834921</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.299140032846481e-05</v>
+        <v>0.0001317017304245383</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.712174268206581e-05</v>
+        <v>0.00026314752176404</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.81711810809793e-06</v>
+        <v>0.000236154068261385</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.598062777309678e-06</v>
+        <v>0.0003279149241279811</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.943953975569457e-07</v>
+        <v>0.0002231803664471954</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.557008701842278e-05</v>
+        <v>8.97034551599063e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.073222837381763e-06</v>
+        <v>0.0002602206950541586</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.581358270021155e-05</v>
+        <v>0.0002756398171186447</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.621625339495949e-05</v>
+        <v>0.002395435236394405</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0001096960622817278</v>
+        <v>0.0004316969425417483</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.650757571449503e-05</v>
+        <v>7.445483788615093e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.02595196646871e-06</v>
+        <v>8.692317351233214e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>7.375603308901191e-05</v>
+        <v>0.0003603432851377875</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.165267505915835e-05</v>
+        <v>0.0006580305634997785</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.807876808219589e-05</v>
+        <v>0.000418921816162765</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.951786311517935e-06</v>
+        <v>0.0002177967253373936</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.686324842215981e-05</v>
+        <v>0.0001899121562018991</v>
       </c>
       <c r="BD16" t="n">
-        <v>7.984897820279002e-06</v>
+        <v>0.0005346187390387058</v>
       </c>
       <c r="BE16" t="n">
-        <v>7.513660239055753e-05</v>
+        <v>0.0005369714926928282</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.392977527662879e-06</v>
+        <v>9.533456614008173e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>3.984192153438926e-05</v>
+        <v>0.0009622533107176423</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.201255690830294e-05</v>
+        <v>0.000657912518363446</v>
       </c>
       <c r="BI16" t="n">
-        <v>6.554393621627241e-05</v>
+        <v>0.0001465335371904075</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.690856308618095e-05</v>
+        <v>0.0003492776013445109</v>
       </c>
       <c r="BK16" t="n">
-        <v>2.53728521784069e-05</v>
+        <v>0.0005166225600987673</v>
       </c>
       <c r="BL16" t="n">
-        <v>8.708690984349232e-06</v>
+        <v>0.0001288246130570769</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.428203540854156e-05</v>
+        <v>0.0004360439488664269</v>
       </c>
       <c r="BN16" t="n">
-        <v>3.977896994911134e-05</v>
+        <v>9.339325333712623e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>3.774312517634826e-06</v>
+        <v>9.29082598304376e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.878486313624308e-05</v>
+        <v>8.740630437387154e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>5.756050995842088e-06</v>
+        <v>0.0001695942773949355</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.42091612360673e-05</v>
+        <v>0.0002502007118891925</v>
       </c>
       <c r="BS16" t="n">
-        <v>3.860849756165408e-05</v>
+        <v>5.276987212710083e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>2.155083620891673e-06</v>
+        <v>0.0001371926628053188</v>
       </c>
       <c r="BU16" t="n">
-        <v>7.757153070997447e-05</v>
+        <v>3.089000529143959e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.793749834178016e-05</v>
+        <v>0.001302944030612707</v>
       </c>
       <c r="BW16" t="n">
-        <v>4.569149677990936e-05</v>
+        <v>0.0001800228492356837</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.352642670506611e-05</v>
+        <v>0.0002044078282779083</v>
       </c>
       <c r="BY16" t="n">
-        <v>4.003458889201283e-05</v>
+        <v>0.0001010378473438323</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1.831486952141859e-05</v>
+        <v>0.0001814131246646866</v>
       </c>
       <c r="CA16" t="n">
-        <v>2.726228558458388e-07</v>
+        <v>0.0001317189598921686</v>
       </c>
       <c r="CB16" t="n">
-        <v>5.283825430524303e-07</v>
+        <v>7.511259173043072e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>3.589748666854575e-05</v>
+        <v>7.095192995620891e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.980867404607125e-05</v>
+        <v>0.0001724522007862106</v>
       </c>
       <c r="CE16" t="n">
-        <v>4.657608951674774e-05</v>
+        <v>0.000619681435637176</v>
       </c>
       <c r="CF16" t="n">
-        <v>4.763866309076548e-05</v>
+        <v>0.0001032346626743674</v>
       </c>
       <c r="CG16" t="n">
-        <v>7.243865184136666e-06</v>
+        <v>0.0001043530501192436</v>
       </c>
       <c r="CH16" t="n">
-        <v>7.405246833513957e-06</v>
+        <v>0.0001148991723312065</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.763520231179427e-05</v>
+        <v>0.0001485629036324099</v>
       </c>
       <c r="CJ16" t="n">
-        <v>9.159697583527304e-06</v>
+        <v>0.0002266421215608716</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.123635956901126e-05</v>
+        <v>7.059287599986419e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.356931418034947e-06</v>
+        <v>0.0001690173521637917</v>
       </c>
       <c r="CM16" t="n">
-        <v>8.724358849576674e-06</v>
+        <v>0.0008805063553154469</v>
       </c>
       <c r="CN16" t="n">
-        <v>5.594498361460865e-05</v>
+        <v>0.0001358927838737145</v>
       </c>
       <c r="CO16" t="n">
-        <v>2.51353376370389e-05</v>
+        <v>0.0001872565189842135</v>
       </c>
       <c r="CP16" t="n">
-        <v>1.779320336936507e-05</v>
+        <v>0.001095279818400741</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1.699162385193631e-05</v>
+        <v>0.0005429125158116221</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.068818801286398e-05</v>
+        <v>0.0007014228613115847</v>
       </c>
       <c r="CS16" t="n">
-        <v>4.849635388382012e-06</v>
+        <v>0.0006165137747302651</v>
       </c>
       <c r="CT16" t="n">
-        <v>6.38961046206532e-06</v>
+        <v>0.0003684494295157492</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.055771917890524e-05</v>
+        <v>0.0003251582093071193</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.703490074258298e-05</v>
+        <v>0.0001656257372815162</v>
       </c>
       <c r="CW16" t="n">
-        <v>4.270348290447146e-05</v>
+        <v>0.0005676117725670338</v>
       </c>
       <c r="CX16" t="n">
-        <v>5.086872988613322e-05</v>
+        <v>9.615143062546849e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.420453600076144e-06</v>
+        <v>0.0002930252230726182</v>
       </c>
       <c r="CZ16" t="n">
-        <v>2.993841553688981e-05</v>
+        <v>0.0001352988183498383</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.813094786484726e-05</v>
+        <v>7.947250560391694e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>8.720033292775042e-06</v>
+        <v>0.0002206504868809134</v>
       </c>
       <c r="DC16" t="n">
-        <v>8.037126463023014e-06</v>
+        <v>0.0001799060119083151</v>
       </c>
       <c r="DD16" t="n">
-        <v>5.363728632801212e-06</v>
+        <v>0.0001723882887745276</v>
       </c>
       <c r="DE16" t="n">
-        <v>9.584066901879851e-06</v>
+        <v>0.0002806545817293227</v>
       </c>
       <c r="DF16" t="n">
-        <v>8.740385237615556e-05</v>
+        <v>0.000551530160009861</v>
       </c>
       <c r="DG16" t="n">
-        <v>2.067991954390891e-05</v>
+        <v>0.0001470568822696805</v>
       </c>
       <c r="DH16" t="n">
-        <v>1.413885456713615e-05</v>
+        <v>0.0005524563021026552</v>
       </c>
       <c r="DI16" t="n">
-        <v>3.829976776614785e-05</v>
+        <v>0.001231647795066237</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.943586539709941e-06</v>
+        <v>0.001186374807730317</v>
       </c>
       <c r="DK16" t="n">
-        <v>9.291019523516297e-06</v>
+        <v>0.0001345831406069919</v>
       </c>
       <c r="DL16" t="n">
-        <v>4.440444172360003e-07</v>
+        <v>0.0002396773343207315</v>
       </c>
       <c r="DM16" t="n">
-        <v>1.558408985147253e-05</v>
+        <v>0.0008612981182523072</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.012512024724856e-06</v>
+        <v>0.0002336816105525941</v>
       </c>
       <c r="DO16" t="n">
-        <v>6.342690903693438e-05</v>
+        <v>0.0001059314017766155</v>
       </c>
       <c r="DP16" t="n">
-        <v>1.802280894480646e-05</v>
+        <v>0.0002681733458302915</v>
       </c>
       <c r="DQ16" t="n">
-        <v>6.723957994836383e-07</v>
+        <v>0.0004239326517563313</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.306241028942168e-05</v>
+        <v>0.0001678353291936219</v>
       </c>
       <c r="DS16" t="n">
-        <v>1.534675357106607e-05</v>
+        <v>0.0004054759338032454</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.478736521676183e-06</v>
+        <v>0.0003566736704669893</v>
       </c>
       <c r="DU16" t="n">
-        <v>9.606861567590386e-06</v>
+        <v>0.000307325943140313</v>
       </c>
       <c r="DV16" t="n">
-        <v>7.149770226533292e-06</v>
+        <v>0.0002277263847645372</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.600319592398591e-05</v>
+        <v>8.48897616378963e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.660111411183607e-05</v>
+        <v>0.0004221591807436198</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.782218643915257e-06</v>
+        <v>0.0001742387830745429</v>
       </c>
       <c r="DZ16" t="n">
-        <v>2.798200512188487e-06</v>
+        <v>0.0004962297971360385</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.095995634794235e-05</v>
+        <v>0.0003069161321036518</v>
       </c>
       <c r="EB16" t="n">
-        <v>1.426966264261864e-05</v>
+        <v>0.0001505095133325085</v>
       </c>
       <c r="EC16" t="n">
-        <v>3.234747964597773e-06</v>
+        <v>7.643689605174586e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.639758531586267e-05</v>
+        <v>0.0003267455904278904</v>
       </c>
       <c r="EE16" t="n">
-        <v>4.338320650276728e-06</v>
+        <v>0.0007616282673552632</v>
       </c>
       <c r="EF16" t="n">
-        <v>5.446096474770457e-05</v>
+        <v>0.0005612136446870863</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.787261084653437e-05</v>
+        <v>0.0008951883064582944</v>
       </c>
       <c r="EH16" t="n">
-        <v>4.491113577387296e-05</v>
+        <v>6.432541704270989e-05</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.382597201882163e-05</v>
+        <v>0.0001813791604945436</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.050846185535192e-05</v>
+        <v>9.435112588107586e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>4.890219861408696e-05</v>
+        <v>0.0003271212626714259</v>
       </c>
       <c r="EL16" t="n">
-        <v>6.198365099407965e-06</v>
+        <v>0.0003212945302948356</v>
       </c>
       <c r="EM16" t="n">
-        <v>3.827485124929808e-05</v>
+        <v>0.0001746903581079096</v>
       </c>
       <c r="EN16" t="n">
-        <v>2.042757114395499e-05</v>
+        <v>5.940150003880262e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>1.477297064411687e-05</v>
+        <v>0.0002581137814559042</v>
       </c>
       <c r="EP16" t="n">
-        <v>2.143279198207892e-05</v>
+        <v>0.0003381170681677759</v>
       </c>
       <c r="EQ16" t="n">
-        <v>1.091129706765059e-05</v>
+        <v>8.285448711831123e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>5.213291842665058e-06</v>
+        <v>0.000418306648498401</v>
       </c>
       <c r="ES16" t="n">
-        <v>2.055183540505823e-05</v>
+        <v>0.0002797093475237489</v>
       </c>
       <c r="ET16" t="n">
-        <v>2.680862598936073e-05</v>
+        <v>4.762167372973636e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>2.862711698981002e-05</v>
+        <v>0.0005885777645744383</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.879000410553999e-05</v>
+        <v>0.0004540204245131463</v>
       </c>
       <c r="EW16" t="n">
-        <v>2.466978730808478e-05</v>
+        <v>0.0001851621636888012</v>
       </c>
       <c r="EX16" t="n">
-        <v>3.592653229134157e-05</v>
+        <v>0.000229274810408242</v>
       </c>
       <c r="EY16" t="n">
-        <v>3.941680188290775e-05</v>
+        <v>0.0005826235865242779</v>
       </c>
       <c r="EZ16" t="n">
-        <v>4.952156086801551e-05</v>
+        <v>3.88164771720767e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>2.675475116120651e-06</v>
+        <v>1.325404082308523e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>2.201244569732808e-05</v>
+        <v>0.000108859094325453</v>
       </c>
       <c r="FC16" t="n">
-        <v>4.530608293862315e-06</v>
+        <v>0.0001204452273668721</v>
       </c>
       <c r="FD16" t="n">
-        <v>1.062782666849671e-05</v>
+        <v>0.0003317566006444395</v>
       </c>
       <c r="FE16" t="n">
-        <v>1.391987825627439e-05</v>
+        <v>0.0001440963242202997</v>
       </c>
       <c r="FF16" t="n">
-        <v>1.108601099986117e-05</v>
+        <v>0.0002812842139974236</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.960274287033826e-05</v>
+        <v>0.0001144496854976751</v>
       </c>
       <c r="FH16" t="n">
-        <v>8.208949111576658e-06</v>
+        <v>0.0002643500629346818</v>
       </c>
       <c r="FI16" t="n">
-        <v>4.049470589961857e-05</v>
+        <v>0.0003253495669923723</v>
       </c>
       <c r="FJ16" t="n">
-        <v>3.762235428439453e-05</v>
+        <v>0.0005794989410787821</v>
       </c>
       <c r="FK16" t="n">
-        <v>5.583100119110895e-06</v>
+        <v>0.0002302719076396897</v>
       </c>
       <c r="FL16" t="n">
-        <v>2.434331872791518e-05</v>
+        <v>6.936895078979433e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>6.485885023721494e-06</v>
+        <v>0.0001722056185826659</v>
       </c>
       <c r="FN16" t="n">
-        <v>3.751576514332555e-06</v>
+        <v>0.0001363222399959341</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.09469547169283e-05</v>
+        <v>0.0002502445131540298</v>
       </c>
       <c r="FP16" t="n">
-        <v>3.507971086946782e-06</v>
+        <v>0.0006497618742287159</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0001171506301034242</v>
+        <v>0.0002649548696354032</v>
       </c>
       <c r="FR16" t="n">
-        <v>1.701054497971199e-05</v>
+        <v>0.0003005223697982728</v>
       </c>
       <c r="FS16" t="n">
-        <v>2.906299960159231e-05</v>
+        <v>0.000502966227941215</v>
       </c>
       <c r="FT16" t="n">
-        <v>3.599099727580324e-06</v>
+        <v>9.294912160839885e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>1.95574939425569e-05</v>
+        <v>0.0002811792655847967</v>
       </c>
       <c r="FV16" t="n">
-        <v>2.708147803787142e-07</v>
+        <v>0.0001041432988131419</v>
       </c>
       <c r="FW16" t="n">
-        <v>4.446494131116197e-06</v>
+        <v>2.798574132611975e-05</v>
       </c>
       <c r="FX16" t="n">
-        <v>1.353969764750218e-06</v>
+        <v>0.0002305346424691379</v>
       </c>
       <c r="FY16" t="n">
-        <v>2.032285374298226e-05</v>
+        <v>0.000729277147911489</v>
       </c>
       <c r="FZ16" t="n">
-        <v>7.173945505201118e-06</v>
+        <v>0.0001017888644128107</v>
       </c>
       <c r="GA16" t="n">
-        <v>1.968490778381238e-06</v>
+        <v>0.0001959515066118911</v>
       </c>
       <c r="GB16" t="n">
-        <v>3.71230453311e-06</v>
+        <v>1.62962078320561e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>3.302226832602173e-05</v>
+        <v>0.000156287889694795</v>
       </c>
       <c r="GD16" t="n">
-        <v>3.13186610583216e-05</v>
+        <v>0.0003006122133228928</v>
       </c>
       <c r="GE16" t="n">
-        <v>3.735288828465855e-06</v>
+        <v>8.680026076035574e-05</v>
       </c>
       <c r="GF16" t="n">
-        <v>1.299851828662213e-05</v>
+        <v>0.0002097943070111796</v>
       </c>
       <c r="GG16" t="n">
-        <v>5.96601876168279e-06</v>
+        <v>0.0002751450520008802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05392060428857803</v>
+        <v>1.180318832397461</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2181719839572906</v>
+        <v>0.2624476253986359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3560904860496521</v>
+        <v>0.03602723777294159</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3580809235572815</v>
+        <v>0.2170795798301697</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1163397580385208</v>
+        <v>0.1146289333701134</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08499918878078461</v>
+        <v>0.824756920337677</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08586715906858444</v>
+        <v>0.2843971848487854</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03885763138532639</v>
+        <v>0.2468066364526749</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04602805897593498</v>
+        <v>0.1478591710329056</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03519309312105179</v>
+        <v>0.8320124745368958</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1914578229188919</v>
+        <v>0.2442663460969925</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3941405415534973</v>
+        <v>0.08131936937570572</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3065604567527771</v>
+        <v>0.1893030107021332</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09171602874994278</v>
+        <v>0.1216944605112076</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04968446120619774</v>
+        <v>0.7159577012062073</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02197878807783127</v>
+        <v>0.517544150352478</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08139403909444809</v>
+        <v>0.345853716135025</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00123521126806736</v>
+        <v>0.05499375611543655</v>
       </c>
       <c r="S17" t="n">
-        <v>0.011417749337852</v>
+        <v>0.122728168964386</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03113104589283466</v>
+        <v>0.301302045583725</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01109094545245171</v>
+        <v>0.08859209716320038</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001239951467141509</v>
+        <v>0.1868656277656555</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1551446914672852</v>
+        <v>0.4058549702167511</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03809220716357231</v>
+        <v>0.1560489535331726</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.05298023298382759</v>
+        <v>0.210093691945076</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.006131760776042938</v>
+        <v>0.1270359307527542</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03068160824477673</v>
+        <v>0.01843433082103729</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1279953122138977</v>
+        <v>0.2663926184177399</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1078021675348282</v>
+        <v>0.1188983246684074</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.08487942069768906</v>
+        <v>0.149054080247879</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.07908442616462708</v>
+        <v>0.0740465372800827</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.1403475403785706</v>
+        <v>0.1120143160223961</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1348060220479965</v>
+        <v>0.1418112367391586</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03722897544503212</v>
+        <v>0.05035024881362915</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.01166259683668613</v>
+        <v>0.05687310546636581</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.1554418057203293</v>
+        <v>0.03541107103228569</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.1411783695220947</v>
+        <v>0.2485543936491013</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.08706034719944</v>
+        <v>0.1174021139740944</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.05911604687571526</v>
+        <v>0.1018578112125397</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0167219378054142</v>
+        <v>0.18299899995327</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.05252332612872124</v>
+        <v>0.03424657136201859</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.06869345903396606</v>
+        <v>0.05385412648320198</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.002398274838924408</v>
+        <v>0.03006621822714806</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.02124607563018799</v>
+        <v>0.141258493065834</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.007731908932328224</v>
+        <v>0.01079247612506151</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.08519422262907028</v>
+        <v>0.7277436852455139</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1165462359786034</v>
+        <v>0.2824447453022003</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1438151448965073</v>
+        <v>0.1099474802613258</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.03789633512496948</v>
+        <v>0.1571962535381317</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.122150219976902</v>
+        <v>0.5958960652351379</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.06545934826135635</v>
+        <v>0.6714555621147156</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1264375001192093</v>
+        <v>0.05543580651283264</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.1301041692495346</v>
+        <v>0.353589653968811</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.1059936732053757</v>
+        <v>0.1189827397465706</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.02886955067515373</v>
+        <v>0.2096754014492035</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.07143434882164001</v>
+        <v>0.4472244381904602</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.07797545194625854</v>
+        <v>0.1104241758584976</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.07317472249269485</v>
+        <v>0.165772870182991</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1954254806041718</v>
+        <v>0.05268099904060364</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.1828368008136749</v>
+        <v>0.03570632264018059</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.03317519277334213</v>
+        <v>0.3716038465499878</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.1062774732708931</v>
+        <v>0.1683153361082077</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.06621337682008743</v>
+        <v>0.04659848660230637</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.09213557094335556</v>
+        <v>0.02140155807137489</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.03842116892337799</v>
+        <v>0.2061213105916977</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.08315685391426086</v>
+        <v>0.05190711468458176</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.03558958321809769</v>
+        <v>0.2324418872594833</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.00943134818226099</v>
+        <v>0.1896874457597733</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.04213814437389374</v>
+        <v>0.1815392524003983</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.1079100221395493</v>
+        <v>0.1858390867710114</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.1010731682181358</v>
+        <v>0.1701963841915131</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.03750622645020485</v>
+        <v>0.1692915707826614</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.1464735865592957</v>
+        <v>0.3561715483665466</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.04679233953356743</v>
+        <v>0.2577700614929199</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.09651032090187073</v>
+        <v>0.105206161737442</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.06241469830274582</v>
+        <v>0.1410582214593887</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.09258627891540527</v>
+        <v>0.387031614780426</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.03560414537787437</v>
+        <v>0.4585424661636353</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.1111731454730034</v>
+        <v>0.05101502686738968</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.1729360073804855</v>
+        <v>0.2427727282047272</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.1071904748678207</v>
+        <v>0.0170366894453764</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.1070437803864479</v>
+        <v>0.2071567475795746</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.03552279621362686</v>
+        <v>0.2340685129165649</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.08367928862571716</v>
+        <v>0.009120514616370201</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.06661758571863174</v>
+        <v>0.0006161481142044067</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.003321267897263169</v>
+        <v>0.08329862356185913</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.06899961829185486</v>
+        <v>0.1400411128997803</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.04948628321290016</v>
+        <v>0.02694472298026085</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.02428604103624821</v>
+        <v>0.2237138301134109</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.01604621671140194</v>
+        <v>0.0202200785279274</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.03219988197088242</v>
+        <v>0.03247847408056259</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0114652868360281</v>
+        <v>0.06939671188592911</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.004202453419566154</v>
+        <v>0.004537966102361679</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.08923677355051041</v>
+        <v>0.006920285522937775</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.06077287346124649</v>
+        <v>0.625977098941803</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.2470741868019104</v>
+        <v>0.1016014590859413</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.130263477563858</v>
+        <v>0.08734869211912155</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.08093030005693436</v>
+        <v>0.04722239077091217</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.00938730500638485</v>
+        <v>0.02921108342707157</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.1184922456741333</v>
+        <v>0.1915698796510696</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.02139718271791935</v>
+        <v>0.2226179391145706</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.08700765669345856</v>
+        <v>0.01289805956184864</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.06451135128736496</v>
+        <v>0.02510286867618561</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.004702306352555752</v>
+        <v>0.07357688993215561</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.07313738763332367</v>
+        <v>0.1475271880626678</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.05305542051792145</v>
+        <v>6.191432476043701e-06</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.03284661471843719</v>
+        <v>0.2236250042915344</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.03840287774801254</v>
+        <v>0.03981001675128937</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.06023527681827545</v>
+        <v>0.08251099288463593</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.004009990021586418</v>
+        <v>0.109473742544651</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.3584603667259216</v>
+        <v>0.04461254179477692</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.08638382703065872</v>
+        <v>0.1613059341907501</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.01755164191126823</v>
+        <v>0.3635796308517456</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.001763286534696817</v>
+        <v>0.002030434086918831</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.1747504323720932</v>
+        <v>0.07045847177505493</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.06210076808929443</v>
+        <v>0.2261217683553696</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.02865410409867764</v>
+        <v>0.1083736270666122</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.008541185408830643</v>
+        <v>0.1072840914130211</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.05056896433234215</v>
+        <v>0.008241094648838043</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.02683700062334538</v>
+        <v>0.1055444628000259</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.007458969950675964</v>
+        <v>0.0298868790268898</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.1014737263321877</v>
+        <v>0.04442330077290535</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.01320262905210257</v>
+        <v>0.1124017238616943</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.05231061577796936</v>
+        <v>0.1855147331953049</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.07685545831918716</v>
+        <v>0.4045686423778534</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.01435255166143179</v>
+        <v>0.04623319208621979</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.04836267605423927</v>
+        <v>0.01469737198203802</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.06320790946483612</v>
+        <v>0.1713905185461044</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.03263312950730324</v>
+        <v>0.02710531279444695</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.01903275214135647</v>
+        <v>0.03964009135961533</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.06054249778389931</v>
+        <v>0.02378075942397118</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.05441327020525932</v>
+        <v>0.3302265703678131</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.06062456592917442</v>
+        <v>0.02017518505454063</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.04606135189533234</v>
+        <v>0.02929426357150078</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.04325797781348228</v>
+        <v>0.125989094376564</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.1060594022274017</v>
+        <v>0.1558857858181</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.129062756896019</v>
+        <v>0.165084645152092</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.09974350780248642</v>
+        <v>0.02859915792942047</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.1242404207587242</v>
+        <v>0.07607606053352356</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.1707300543785095</v>
+        <v>0.01644260250031948</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.1014473438262939</v>
+        <v>0.02583561837673187</v>
       </c>
       <c r="EL17" t="n">
-        <v>0.02633569948375225</v>
+        <v>0.009257040917873383</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.05019388347864151</v>
+        <v>0.03606799617409706</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.04747872427105904</v>
+        <v>0.04177474975585938</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.06242527812719345</v>
+        <v>0.07893306761980057</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.03779753670096397</v>
+        <v>0.2749474346637726</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.01373104937374592</v>
+        <v>0.06947876513004303</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0461457222700119</v>
+        <v>0.1030310243368149</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.01676111295819283</v>
+        <v>0.3104412257671356</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.005598765332251787</v>
+        <v>0.1382138133049011</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.112411841750145</v>
+        <v>0.1710902601480484</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.06538421660661697</v>
+        <v>0.1514442712068558</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.02229108288884163</v>
+        <v>0.1365577876567841</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.1126988977193832</v>
+        <v>0.154307559132576</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.03243472799658775</v>
+        <v>0.1827547401189804</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.0827280655503273</v>
+        <v>0.006807371973991394</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.07483477890491486</v>
+        <v>0.04828403517603874</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.01309466175734997</v>
+        <v>0.07718504220247269</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0719185546040535</v>
+        <v>0.1069734692573547</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.05587799847126007</v>
+        <v>0.05345487222075462</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.02394971996545792</v>
+        <v>0.2686589062213898</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.01689503341913223</v>
+        <v>0.03132621571421623</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.06304222345352173</v>
+        <v>0.1046399474143982</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.08498673886060715</v>
+        <v>0.07016362249851227</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.07590144127607346</v>
+        <v>0.0588342659175396</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.05374131351709366</v>
+        <v>0.01723785698413849</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.04857830330729485</v>
+        <v>0.09701593965291977</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.05016739666461945</v>
+        <v>0.01401578821241856</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.03592381626367569</v>
+        <v>0.06058432534337044</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.06302601099014282</v>
+        <v>0.01227173767983913</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.01182763651013374</v>
+        <v>0.02701780572533607</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.02252405136823654</v>
+        <v>0.2454353868961334</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.1647764295339584</v>
+        <v>0.1534387916326523</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.0648159384727478</v>
+        <v>0.1370709389448166</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.03931809961795807</v>
+        <v>0.09993056952953339</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.1155148074030876</v>
+        <v>0.234009325504303</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.1259662210941315</v>
+        <v>0.3053976893424988</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.02379479631781578</v>
+        <v>0.1054039597511292</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.06670403480529785</v>
+        <v>0.02449970506131649</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.005114630796015263</v>
+        <v>0.005827286280691624</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.003531083464622498</v>
+        <v>0.1003322303295135</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.05924700945615768</v>
+        <v>0.02141768299043179</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.04934335872530937</v>
+        <v>0.06822192668914795</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.05288488417863846</v>
+        <v>0.05670862272381783</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.05119545012712479</v>
+        <v>0.1061685085296631</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.1169977411627769</v>
+        <v>0.07953757047653198</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.07893697172403336</v>
+        <v>0.07594138383865356</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.007598740048706532</v>
+        <v>0.130971685051918</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.05697163939476013</v>
+        <v>0.04311869293451309</v>
       </c>
     </row>
   </sheetData>
